--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_586.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_586.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g29092-d78985-Reviews-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>110</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Quality-Inn-Suites-Anaheim-Maingate.h64162.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_586.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_586.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="523">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1485 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/08/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r565167660-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>29092</t>
+  </si>
+  <si>
+    <t>78985</t>
+  </si>
+  <si>
+    <t>565167660</t>
+  </si>
+  <si>
+    <t>03/07/2018</t>
+  </si>
+  <si>
+    <t>A short bus ride to the park they say a short walk but NOT! Very clean! Nice accommodating staff.</t>
+  </si>
+  <si>
+    <t>You could walk to the park. After 20 minutes you would get there. Or take the ART bus and get there in five minutes. Two dollars adult one dollar child  or get a day pass. This way you can come and go but we found we just stayed at the park all day And evening. On the way back you catch the number 10 and return to the hotel. It is a longer ride. it takes you around the neighborhood. It is worth it. at the end of the day After walking around the park all day it’s nice to be able to sit down and just enjoy the ride and hear the people talking about their fun day.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Mukesh P, Guest Relations Manager at Quality Inn &amp; Suites Anaheim Maingate, responded to this reviewResponded March 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 8, 2018</t>
+  </si>
+  <si>
+    <t>You could walk to the park. After 20 minutes you would get there. Or take the ART bus and get there in five minutes. Two dollars adult one dollar child  or get a day pass. This way you can come and go but we found we just stayed at the park all day And evening. On the way back you catch the number 10 and return to the hotel. It is a longer ride. it takes you around the neighborhood. It is worth it. at the end of the day After walking around the park all day it’s nice to be able to sit down and just enjoy the ride and hear the people talking about their fun day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r563053239-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>563053239</t>
+  </si>
+  <si>
+    <t>02/26/2018</t>
+  </si>
+  <si>
+    <t>Charged for a Disney vacation that won't happen.</t>
+  </si>
+  <si>
+    <t>We finally planned and reserved our first ever family Disney vacation and we decided to stay here. I thought I was cost effective by prepaying for the hotel room, gaining a discount. Big Mistake! Our kids are young adults and one of the girls is on a college softball scholarship. Her school added a game for the same time we were planned to be at Disneyland, so our trip is now cancelled. When I called the hotel to cancel, they refused to refund me my reservation. I'm out almost 800.00 for a family vacation I won't even take.MoreShow less</t>
+  </si>
+  <si>
+    <t>Mukesh P, Guest Relations Manager at Quality Inn &amp; Suites Anaheim Maingate, responded to this reviewResponded March 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 1, 2018</t>
+  </si>
+  <si>
+    <t>We finally planned and reserved our first ever family Disney vacation and we decided to stay here. I thought I was cost effective by prepaying for the hotel room, gaining a discount. Big Mistake! Our kids are young adults and one of the girls is on a college softball scholarship. Her school added a game for the same time we were planned to be at Disneyland, so our trip is now cancelled. When I called the hotel to cancel, they refused to refund me my reservation. I'm out almost 800.00 for a family vacation I won't even take.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r562033162-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>562033162</t>
+  </si>
+  <si>
+    <t>02/21/2018</t>
+  </si>
+  <si>
+    <t>Family Disney Trip</t>
+  </si>
+  <si>
+    <t>Super Happy with the Hotel.  Very Friendly front desk staff.  Nice Breakfast.  Safe location.  Clean rooms, Nice Lobby and breakfast area.  Comfy beds.   Just 2 buildings down for bus stop to Disney.  We will for sure stay here again on our next trip to Anaheim/Disney!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Mukesh P, Guest Relations Manager at Quality Inn &amp; Suites Anaheim Maingate, responded to this reviewResponded February 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 23, 2018</t>
+  </si>
+  <si>
+    <t>Super Happy with the Hotel.  Very Friendly front desk staff.  Nice Breakfast.  Safe location.  Clean rooms, Nice Lobby and breakfast area.  Comfy beds.   Just 2 buildings down for bus stop to Disney.  We will for sure stay here again on our next trip to Anaheim/Disney!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r546484684-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>546484684</t>
+  </si>
+  <si>
+    <t>12/10/2017</t>
+  </si>
+  <si>
+    <t>Will Never Stay Here Again!</t>
+  </si>
+  <si>
+    <t>Before going into detail, let me first say that this hotel was recommended by a family member. It did not come even close to living up to that recommendation! Second, the sign says "Newly Renovated." At no stretch of the imagination has this hotel been renovated! If what we experienced is AFTER being renovated, I would hate to see the "before" condition! Now the details...
+1. The reservation/check-in: Our reservation (made on-line) was for an accessible room. On check-in we were told that is not what we reserved. We told them we needed an accessible shower (as the individual was in a walker and could not step over a tub). We were told there was nothing available. I attempted to show him the printed receipt, showing the request for an accessible room; he would not look at it, saying there was nothing. Also, on-line it said the hotel was across from the Disneyland entrance. This is not the case. It is actually 0.8 miles. Not a bad drive, easy to get there...just misleading information.   
+2. The room: 
+* BAD SMELL: There was a terrible odor in the room, so bad that we had to have them bring us some air freshener before we could even unpack. We stayed for 4 nights, and each day when we returned from being out and about, the odor was still there. In the bathroom, the odor was of cigarette smoke, though none of us...Before going into detail, let me first say that this hotel was recommended by a family member. It did not come even close to living up to that recommendation! Second, the sign says "Newly Renovated." At no stretch of the imagination has this hotel been renovated! If what we experienced is AFTER being renovated, I would hate to see the "before" condition! Now the details...1. The reservation/check-in: Our reservation (made on-line) was for an accessible room. On check-in we were told that is not what we reserved. We told them we needed an accessible shower (as the individual was in a walker and could not step over a tub). We were told there was nothing available. I attempted to show him the printed receipt, showing the request for an accessible room; he would not look at it, saying there was nothing. Also, on-line it said the hotel was across from the Disneyland entrance. This is not the case. It is actually 0.8 miles. Not a bad drive, easy to get there...just misleading information.   2. The room: * BAD SMELL: There was a terrible odor in the room, so bad that we had to have them bring us some air freshener before we could even unpack. We stayed for 4 nights, and each day when we returned from being out and about, the odor was still there. In the bathroom, the odor was of cigarette smoke, though none of us smoke and it was supposed to be a non-smoking room. The rest of the room it smelled like a mild skunk odor. * THE BED/COUCH: The beds were very hard! The handicapped individual with us had a very difficult time sleeping. Additionally, the bedding was dirty. One bed had small black bits of something in the sheets. The other bed had leaves...yes, leaves (as if someone had put dirty shoes on the bed). The couch was very dirty and stained, so much so that we wouldn't sit on it.* THE BATHROOM: BEWARE!!! The shower floor is VERY slippery and there was no hand rail for the handicapped individual! There was a floor mat provided, but it was dirty and felt slick, so we did not use it. Also, there is no soap rack (no shower shelving at all, in fact), so the bar of soap sits on the edge of the tub. No matter how much you try and completely close the showed curtain, it does not quite reach end-to-end, so every time we used the shower, we had to clean up water off the floor. The toilet does not flush well, so you have to flush frequently or else go down to the desk for a plunger.   *GENERAL: The room was "okay." TV, fridge, microwave...all were provided and seemed to work. (We did not use the fridge or microwave, so can not verify.) No ice maker or vending on the floor, so you have to go down a floor every time you want ice.    Elevator was "interesting"...door would open before the elevator stopped on the floor you were going to. I guess that would explain the squeaking/grinding noise it made! Very frustrating when you are trying to go to bed early, your room is right next to the elevator, and other guests are going up and down until after midnight. Every time someone used the elevator, we were woken up. * PARKING: We were parked in handicapped parking and woke up to someone's van parked behind us, blocking us in. When we asked at the desk, the gentleman told us it was his and that he parks there whenever there is no parking available close to the office. Throughout our stay we noticed other vehicles parked in areas not marked as parking spaces, so apparently there is not adequate parking available. * BREAKFAST: Yes, there is a breakfast. It is "okay"...serves its purpose. It is the same every day, no variation: waffles, sausage gravy with biscuits, scrambled egg patties, yogurt, 3 cereal choices (cheerios, corn flakes, and one other unrecognizable), toast, and mini pastries. The breakfast area is kept clean and the one person we encountered working there was very friendly. * STAFF: This depends on who you encounter. The gentleman that checked us in was a bit rude and not at all concerned with there being an error with the reservation. He did bring up the air freshener for us when we requested it. The gentleman who checked us out was very nice and friendly...although he never once asked about our stay. Overall, we do not recommend this hotel. It was quite sub-par. We will not be staying here ever again.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>Mukesh P, Guest Relations Manager at Quality Inn &amp; Suites Anaheim Maingate, responded to this reviewResponded December 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 13, 2017</t>
+  </si>
+  <si>
+    <t>Before going into detail, let me first say that this hotel was recommended by a family member. It did not come even close to living up to that recommendation! Second, the sign says "Newly Renovated." At no stretch of the imagination has this hotel been renovated! If what we experienced is AFTER being renovated, I would hate to see the "before" condition! Now the details...
+1. The reservation/check-in: Our reservation (made on-line) was for an accessible room. On check-in we were told that is not what we reserved. We told them we needed an accessible shower (as the individual was in a walker and could not step over a tub). We were told there was nothing available. I attempted to show him the printed receipt, showing the request for an accessible room; he would not look at it, saying there was nothing. Also, on-line it said the hotel was across from the Disneyland entrance. This is not the case. It is actually 0.8 miles. Not a bad drive, easy to get there...just misleading information.   
+2. The room: 
+* BAD SMELL: There was a terrible odor in the room, so bad that we had to have them bring us some air freshener before we could even unpack. We stayed for 4 nights, and each day when we returned from being out and about, the odor was still there. In the bathroom, the odor was of cigarette smoke, though none of us...Before going into detail, let me first say that this hotel was recommended by a family member. It did not come even close to living up to that recommendation! Second, the sign says "Newly Renovated." At no stretch of the imagination has this hotel been renovated! If what we experienced is AFTER being renovated, I would hate to see the "before" condition! Now the details...1. The reservation/check-in: Our reservation (made on-line) was for an accessible room. On check-in we were told that is not what we reserved. We told them we needed an accessible shower (as the individual was in a walker and could not step over a tub). We were told there was nothing available. I attempted to show him the printed receipt, showing the request for an accessible room; he would not look at it, saying there was nothing. Also, on-line it said the hotel was across from the Disneyland entrance. This is not the case. It is actually 0.8 miles. Not a bad drive, easy to get there...just misleading information.   2. The room: * BAD SMELL: There was a terrible odor in the room, so bad that we had to have them bring us some air freshener before we could even unpack. We stayed for 4 nights, and each day when we returned from being out and about, the odor was still there. In the bathroom, the odor was of cigarette smoke, though none of us smoke and it was supposed to be a non-smoking room. The rest of the room it smelled like a mild skunk odor. * THE BED/COUCH: The beds were very hard! The handicapped individual with us had a very difficult time sleeping. Additionally, the bedding was dirty. One bed had small black bits of something in the sheets. The other bed had leaves...yes, leaves (as if someone had put dirty shoes on the bed). The couch was very dirty and stained, so much so that we wouldn't sit on it.* THE BATHROOM: BEWARE!!! The shower floor is VERY slippery and there was no hand rail for the handicapped individual! There was a floor mat provided, but it was dirty and felt slick, so we did not use it. Also, there is no soap rack (no shower shelving at all, in fact), so the bar of soap sits on the edge of the tub. No matter how much you try and completely close the showed curtain, it does not quite reach end-to-end, so every time we used the shower, we had to clean up water off the floor. The toilet does not flush well, so you have to flush frequently or else go down to the desk for a plunger.   *GENERAL: The room was "okay." TV, fridge, microwave...all were provided and seemed to work. (We did not use the fridge or microwave, so can not verify.) No ice maker or vending on the floor, so you have to go down a floor every time you want ice.    Elevator was "interesting"...door would open before the elevator stopped on the floor you were going to. I guess that would explain the squeaking/grinding noise it made! Very frustrating when you are trying to go to bed early, your room is right next to the elevator, and other guests are going up and down until after midnight. Every time someone used the elevator, we were woken up. * PARKING: We were parked in handicapped parking and woke up to someone's van parked behind us, blocking us in. When we asked at the desk, the gentleman told us it was his and that he parks there whenever there is no parking available close to the office. Throughout our stay we noticed other vehicles parked in areas not marked as parking spaces, so apparently there is not adequate parking available. * BREAKFAST: Yes, there is a breakfast. It is "okay"...serves its purpose. It is the same every day, no variation: waffles, sausage gravy with biscuits, scrambled egg patties, yogurt, 3 cereal choices (cheerios, corn flakes, and one other unrecognizable), toast, and mini pastries. The breakfast area is kept clean and the one person we encountered working there was very friendly. * STAFF: This depends on who you encounter. The gentleman that checked us in was a bit rude and not at all concerned with there being an error with the reservation. He did bring up the air freshener for us when we requested it. The gentleman who checked us out was very nice and friendly...although he never once asked about our stay. Overall, we do not recommend this hotel. It was quite sub-par. We will not be staying here ever again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r533530611-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>533530611</t>
+  </si>
+  <si>
+    <t>10/16/2017</t>
+  </si>
+  <si>
+    <t>Halloween Fun</t>
+  </si>
+  <si>
+    <t>Thru booking .com I was able to obtain a great price for this place.  It very close to Disneyland, family orientated, good breakfast selection, parking was not so great, rooms were very clean.  Rooms came with microwave and mini fridge.  Pool was very clean and open.  Staff was very efficient, hospitable, professional and knowledgeable.   I truly enjoyed my stay here and felt it was well worth the money.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Mukesh P, Manager at Quality Inn &amp; Suites Anaheim Maingate, responded to this reviewResponded November 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 27, 2017</t>
+  </si>
+  <si>
+    <t>Thru booking .com I was able to obtain a great price for this place.  It very close to Disneyland, family orientated, good breakfast selection, parking was not so great, rooms were very clean.  Rooms came with microwave and mini fridge.  Pool was very clean and open.  Staff was very efficient, hospitable, professional and knowledgeable.   I truly enjoyed my stay here and felt it was well worth the money.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r522467812-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>522467812</t>
+  </si>
+  <si>
+    <t>09/07/2017</t>
+  </si>
+  <si>
+    <t>Quality Inn Has Improved with Quality!</t>
+  </si>
+  <si>
+    <t>It's been quite a long time since I've stayed at a Quality Inn because for a while I found the price was not comparable to the quality stay I would expect. I'm not sure what happened but there were great changes made and I will start staying here again! 
+Check in was fast and extremely friendly. Price was very close to what I payed for a Hilton brand a weekend previously but no where near as great a stay. Room 216 was very comfortable. The beds are absolutely perfect. They're also very clean and super cozy. Pillows were great too. The towels were plentiful and fresh. Shampoo, conditioner and soaps were filled. No need for slippers or flip flops because the carpet was very clean. 
+There is a pool that is small but very clean. 
+Very little noise could be heard from neighbors. Parking is VERY tight but felt safe to walk around at night. There is an ART or Anaheim Resort Transit that'll get you to the parks less than a two minute walk away. I'd say to skip walking to Disneyland because it's almost a 10minute drive and ART takes you closest to the gate. There is a clean elevator to 2nd and 3rd floors that didn't smell funny or feel rickety. 
+The microwave was clean and fridge was cold. 
+The breakfast was pretty awesome and very filling! Biscuits with gravy, fruit, cereal, hot waffles, danishes, juices, sausages...It's been quite a long time since I've stayed at a Quality Inn because for a while I found the price was not comparable to the quality stay I would expect. I'm not sure what happened but there were great changes made and I will start staying here again! Check in was fast and extremely friendly. Price was very close to what I payed for a Hilton brand a weekend previously but no where near as great a stay. Room 216 was very comfortable. The beds are absolutely perfect. They're also very clean and super cozy. Pillows were great too. The towels were plentiful and fresh. Shampoo, conditioner and soaps were filled. No need for slippers or flip flops because the carpet was very clean. There is a pool that is small but very clean. Very little noise could be heard from neighbors. Parking is VERY tight but felt safe to walk around at night. There is an ART or Anaheim Resort Transit that'll get you to the parks less than a two minute walk away. I'd say to skip walking to Disneyland because it's almost a 10minute drive and ART takes you closest to the gate. There is a clean elevator to 2nd and 3rd floors that didn't smell funny or feel rickety. The microwave was clean and fridge was cold. The breakfast was pretty awesome and very filling! Biscuits with gravy, fruit, cereal, hot waffles, danishes, juices, sausages and much more were always fresh. The biscuits were never hard or dry and tasted fresh baked. I'm going back just for the breakfast!The customer service was perfect and again for the price can't be beat. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Leo A, General Manager at Quality Inn &amp; Suites Anaheim Maingate, responded to this reviewResponded October 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 3, 2017</t>
+  </si>
+  <si>
+    <t>It's been quite a long time since I've stayed at a Quality Inn because for a while I found the price was not comparable to the quality stay I would expect. I'm not sure what happened but there were great changes made and I will start staying here again! 
+Check in was fast and extremely friendly. Price was very close to what I payed for a Hilton brand a weekend previously but no where near as great a stay. Room 216 was very comfortable. The beds are absolutely perfect. They're also very clean and super cozy. Pillows were great too. The towels were plentiful and fresh. Shampoo, conditioner and soaps were filled. No need for slippers or flip flops because the carpet was very clean. 
+There is a pool that is small but very clean. 
+Very little noise could be heard from neighbors. Parking is VERY tight but felt safe to walk around at night. There is an ART or Anaheim Resort Transit that'll get you to the parks less than a two minute walk away. I'd say to skip walking to Disneyland because it's almost a 10minute drive and ART takes you closest to the gate. There is a clean elevator to 2nd and 3rd floors that didn't smell funny or feel rickety. 
+The microwave was clean and fridge was cold. 
+The breakfast was pretty awesome and very filling! Biscuits with gravy, fruit, cereal, hot waffles, danishes, juices, sausages...It's been quite a long time since I've stayed at a Quality Inn because for a while I found the price was not comparable to the quality stay I would expect. I'm not sure what happened but there were great changes made and I will start staying here again! Check in was fast and extremely friendly. Price was very close to what I payed for a Hilton brand a weekend previously but no where near as great a stay. Room 216 was very comfortable. The beds are absolutely perfect. They're also very clean and super cozy. Pillows were great too. The towels were plentiful and fresh. Shampoo, conditioner and soaps were filled. No need for slippers or flip flops because the carpet was very clean. There is a pool that is small but very clean. Very little noise could be heard from neighbors. Parking is VERY tight but felt safe to walk around at night. There is an ART or Anaheim Resort Transit that'll get you to the parks less than a two minute walk away. I'd say to skip walking to Disneyland because it's almost a 10minute drive and ART takes you closest to the gate. There is a clean elevator to 2nd and 3rd floors that didn't smell funny or feel rickety. The microwave was clean and fridge was cold. The breakfast was pretty awesome and very filling! Biscuits with gravy, fruit, cereal, hot waffles, danishes, juices, sausages and much more were always fresh. The biscuits were never hard or dry and tasted fresh baked. I'm going back just for the breakfast!The customer service was perfect and again for the price can't be beat. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r476228141-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>476228141</t>
+  </si>
+  <si>
+    <t>04/16/2017</t>
+  </si>
+  <si>
+    <t>Good decent stay</t>
+  </si>
+  <si>
+    <t>I was completely satisfied with the 3 night stay here for our Disneyland trip. The hotel is conveniently located 1.2 mi to the park. It is walkable for some but I preferred to take Uber with small kids. There is also ART shuttle stop around 500ft of the hotel.The hotel was clean with large enough rooms with microwave and refrigerator which is a must for us. The beds were comfortable for a good night sleep after tiring days at the park. The staff is very cordial and friendly. The breakfast is just like any other place with waffle, scrambled eggs, assorted muffins, pastries among other things. The place offers free parking though the lot is small. I personally didn't had any issue with the parking.We could see the spectacular Disney fireworks right from our room on third floor. I definitely recommend this no frill place for just dropping for a good night sleep after park day.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Leo A, General Manager at Quality Inn &amp; Suites Anaheim Maingate, responded to this reviewResponded April 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 19, 2017</t>
+  </si>
+  <si>
+    <t>I was completely satisfied with the 3 night stay here for our Disneyland trip. The hotel is conveniently located 1.2 mi to the park. It is walkable for some but I preferred to take Uber with small kids. There is also ART shuttle stop around 500ft of the hotel.The hotel was clean with large enough rooms with microwave and refrigerator which is a must for us. The beds were comfortable for a good night sleep after tiring days at the park. The staff is very cordial and friendly. The breakfast is just like any other place with waffle, scrambled eggs, assorted muffins, pastries among other things. The place offers free parking though the lot is small. I personally didn't had any issue with the parking.We could see the spectacular Disney fireworks right from our room on third floor. I definitely recommend this no frill place for just dropping for a good night sleep after park day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r475403005-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>475403005</t>
+  </si>
+  <si>
+    <t>04/13/2017</t>
+  </si>
+  <si>
+    <t>A nice hotel still</t>
+  </si>
+  <si>
+    <t>A bit of a walk from Disneyland, but not a particular effort.   Any further may be a bit far on foot.  Anyway, there is an advertised shuttle bus.  It really is a nice hotel, well priced and with friendly and helpful staff.  My hotel of choice in Anaheim, especially since my previous one changed hands.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>A bit of a walk from Disneyland, but not a particular effort.   Any further may be a bit far on foot.  Anyway, there is an advertised shuttle bus.  It really is a nice hotel, well priced and with friendly and helpful staff.  My hotel of choice in Anaheim, especially since my previous one changed hands.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r475128684-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>475128684</t>
+  </si>
+  <si>
+    <t>04/12/2017</t>
+  </si>
+  <si>
+    <t>Maingate misleading</t>
+  </si>
+  <si>
+    <t>It would be a long long walk.Older hotel, park in front if door. Parking free but sparse if you come back late.Comfortable beds, large clean rooms, microwave/fridge, small outdoor pool, there is an elevator. At about 9:30pm every night you can view the Disneyland fireworks display. Best view upstairs. Breakfast area poorly set up, only one waffle maker, people waiting in line for that block everyone else from eggs, biscuits &amp; gravy. Not enough seating. They do strive to keep food refilled. If you book online, there is a surprise charge that doesn't show up until after you have booked room &amp; they have your credit card. They will tell you it is a resort fee that the city of Anaheim mandates them to collect.  Nevertheless, it was good enough value that we stayed here twice. Some rooms are nicer than others.MoreShow less</t>
+  </si>
+  <si>
+    <t>Leo A, General Manager at Quality Inn &amp; Suites Anaheim Maingate, responded to this reviewResponded April 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 13, 2017</t>
+  </si>
+  <si>
+    <t>It would be a long long walk.Older hotel, park in front if door. Parking free but sparse if you come back late.Comfortable beds, large clean rooms, microwave/fridge, small outdoor pool, there is an elevator. At about 9:30pm every night you can view the Disneyland fireworks display. Best view upstairs. Breakfast area poorly set up, only one waffle maker, people waiting in line for that block everyone else from eggs, biscuits &amp; gravy. Not enough seating. They do strive to keep food refilled. If you book online, there is a surprise charge that doesn't show up until after you have booked room &amp; they have your credit card. They will tell you it is a resort fee that the city of Anaheim mandates them to collect.  Nevertheless, it was good enough value that we stayed here twice. Some rooms are nicer than others.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r463594332-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>463594332</t>
+  </si>
+  <si>
+    <t>02/28/2017</t>
+  </si>
+  <si>
+    <t>Great visit!</t>
+  </si>
+  <si>
+    <t>Great experience this week!! We had such great service at the front desk with lots of random request including a sewing kit! The room had A 2 person jetted tub which was perfect After walking Disneyland! Only complaint was the low shower head location. Made me bend ackwardly to shampoo. The breakfast was great and always stocked. A little more variety would be awesome!! Thanks again for a great stay HeidiMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>Leo A, General Manager at Quality Inn &amp; Suites Anaheim Maingate, responded to this reviewResponded March 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 4, 2017</t>
+  </si>
+  <si>
+    <t>Great experience this week!! We had such great service at the front desk with lots of random request including a sewing kit! The room had A 2 person jetted tub which was perfect After walking Disneyland! Only complaint was the low shower head location. Made me bend ackwardly to shampoo. The breakfast was great and always stocked. A little more variety would be awesome!! Thanks again for a great stay HeidiMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r453878671-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>453878671</t>
+  </si>
+  <si>
+    <t>01/21/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disneyland </t>
+  </si>
+  <si>
+    <t>This hotel is not walking distance to Disneyland or close to the Maingate. Complimentary breakfast was bland, cold and there weren't many options. The breakfast area was very small and cramped. Beds were not comfortable and they sagged. Room was clean and but it looked out dated.  Staff was very friendly and helpful. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Leo A, General Manager at Quality Inn &amp; Suites Anaheim Maingate, responded to this reviewResponded January 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 28, 2017</t>
+  </si>
+  <si>
+    <t>This hotel is not walking distance to Disneyland or close to the Maingate. Complimentary breakfast was bland, cold and there weren't many options. The breakfast area was very small and cramped. Beds were not comfortable and they sagged. Room was clean and but it looked out dated.  Staff was very friendly and helpful. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r451533164-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>451533164</t>
+  </si>
+  <si>
+    <t>01/12/2017</t>
+  </si>
+  <si>
+    <t>Great stay for our Disneyland trip</t>
+  </si>
+  <si>
+    <t>My family stayed here for two nights while we were on a quick trip to Disneyland a few days before Christmas. Our room was really big, clean, comfortable. The hotel had a continental breakfast which was perfectly adequate. It's located just very a short walk away from a bus stop where you can catch the shuttle to Disneyland. You can buy tickets for the shuttle at the front desk. We were told that you can see the Disney fireworks from the hotel (unfortunately the fireworks were cancelled both nights due to weather. boo!) Staff was friendly, we had no problems whatsoever. I really have no complaints except I wish the WiFi was faster, but that's not really a deal breaker for us.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>My family stayed here for two nights while we were on a quick trip to Disneyland a few days before Christmas. Our room was really big, clean, comfortable. The hotel had a continental breakfast which was perfectly adequate. It's located just very a short walk away from a bus stop where you can catch the shuttle to Disneyland. You can buy tickets for the shuttle at the front desk. We were told that you can see the Disney fireworks from the hotel (unfortunately the fireworks were cancelled both nights due to weather. boo!) Staff was friendly, we had no problems whatsoever. I really have no complaints except I wish the WiFi was faster, but that's not really a deal breaker for us.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r438857929-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>438857929</t>
+  </si>
+  <si>
+    <t>11/20/2016</t>
+  </si>
+  <si>
+    <t>Very good hotel close to Disneyland</t>
+  </si>
+  <si>
+    <t>The pros to this hotel:1. Newly renovated rooms2. Attractive decor in the rooms3. Large rooms with sofa 4. Elevator in motel5. Pool6. Inexpensive7. Close to Disneyland8. Clean and well maintained9. Free breakfast10. Friendly staffCons:1. The breakfast room is very small, needs more tables and a larger roomI would stay againMoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>The pros to this hotel:1. Newly renovated rooms2. Attractive decor in the rooms3. Large rooms with sofa 4. Elevator in motel5. Pool6. Inexpensive7. Close to Disneyland8. Clean and well maintained9. Free breakfast10. Friendly staffCons:1. The breakfast room is very small, needs more tables and a larger roomI would stay againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r436162713-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>436162713</t>
+  </si>
+  <si>
+    <t>11/10/2016</t>
+  </si>
+  <si>
+    <t>Nice Place - Close to Parks</t>
+  </si>
+  <si>
+    <t>We arrived a bit early @ 2 and while room wasn't ready , I was given a parking pass and a coupon for a local restaurant . The Hotel room itself was ok , clean, comfortable beds . Mini Fridge and Microwave were a great benefit to have. Only issue was parking, Very difficult after a long day at the parks. We left earlier than we wanted due to lack of parking and worried we would not get a spot . IF you are interested in watching , hearing and Feeling the Fireworks it is good for that , but keep in mind they are really , really loud, but not the motels fault and my Granddaughter loved it . Not sure I would consider this Motel within walking distance ,at least not after a full day at Disney, but it is pretty close. The Motel was on bus line and ART is near. Breakfast was as advertised and area while small, was clean and well stocked.There are no inside hallways . Did not use Wifi , used own 4G .MoreShow less</t>
+  </si>
+  <si>
+    <t>We arrived a bit early @ 2 and while room wasn't ready , I was given a parking pass and a coupon for a local restaurant . The Hotel room itself was ok , clean, comfortable beds . Mini Fridge and Microwave were a great benefit to have. Only issue was parking, Very difficult after a long day at the parks. We left earlier than we wanted due to lack of parking and worried we would not get a spot . IF you are interested in watching , hearing and Feeling the Fireworks it is good for that , but keep in mind they are really , really loud, but not the motels fault and my Granddaughter loved it . Not sure I would consider this Motel within walking distance ,at least not after a full day at Disney, but it is pretty close. The Motel was on bus line and ART is near. Breakfast was as advertised and area while small, was clean and well stocked.There are no inside hallways . Did not use Wifi , used own 4G .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r433065787-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>433065787</t>
+  </si>
+  <si>
+    <t>10/30/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just Arrived </t>
+  </si>
+  <si>
+    <t>Although we just got here, I am very happy with the cleanliness and size of our room, and it was inexpensive. Two most imporant things were checked: the shower looks impeccably clean and the beds are way comfortable. Even though it is far walk from the park, there is a cheap shuttle to Disneyland from here as well that runs before Disneyland opens and 30 min after it closes. MoreShow less</t>
+  </si>
+  <si>
+    <t>Leo A, Manager at Quality Inn &amp; Suites Anaheim Maingate, responded to this reviewResponded October 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 31, 2016</t>
+  </si>
+  <si>
+    <t>Although we just got here, I am very happy with the cleanliness and size of our room, and it was inexpensive. Two most imporant things were checked: the shower looks impeccably clean and the beds are way comfortable. Even though it is far walk from the park, there is a cheap shuttle to Disneyland from here as well that runs before Disneyland opens and 30 min after it closes. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r428509268-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>428509268</t>
+  </si>
+  <si>
+    <t>10/16/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leisure </t>
+  </si>
+  <si>
+    <t>This hotel was clean and surprisingly quiet.  Staff was very helpful and friendly.Rooms nice and roomy with refrigerator and microwave.Breakfast was good but a bit more space for sitting would be a big help.Price a bit higher than normal for Choice.MoreShow less</t>
+  </si>
+  <si>
+    <t>Leo A, General Manager at Quality Inn &amp; Suites Anaheim Maingate, responded to this reviewResponded October 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 22, 2016</t>
+  </si>
+  <si>
+    <t>This hotel was clean and surprisingly quiet.  Staff was very helpful and friendly.Rooms nice and roomy with refrigerator and microwave.Breakfast was good but a bit more space for sitting would be a big help.Price a bit higher than normal for Choice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r425189959-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>425189959</t>
+  </si>
+  <si>
+    <t>10/04/2016</t>
+  </si>
+  <si>
+    <t>Decent hotel; nice staff; must shuttle to the Parks</t>
+  </si>
+  <si>
+    <t>The room was very comfortable, larger than expected, with good-quality furnishings, though I would have liked a computer desk.  It had all of the amenities you'd expect and need - a 2-part bathroom, good-sized fridge, coffee maker, flat screen TV, lots of pillows.Oddly, my only complaint about the room is the shower:  I'm only 5'10" tall, but the showerhead barely cleared my chin!  Also, the temp fluctuated wildly, from cold to near-scalding and back again, during every use, at all times of the day.  Minor annoyances, overall, but worth mentioning, in case ownership reads these.Lastly, it's important to note that it's probably a mile to the Maingate - not walkable, if you have kids.  However, tickets for the ART are sold at the front desk, are reasonably priced, and the stop is less than a block away from the hotel.  BTW, I found out this weekend that if you show your ART ticket to a city bus driver that happens to be headed toward the park, they'll let you on the bus, and drop you at the Maingate bus stop on Harbor Blvd.I'd have no qualms whatsoever staying here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Leo A, General Manager at Quality Inn &amp; Suites Anaheim Maingate, responded to this reviewResponded October 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 12, 2016</t>
+  </si>
+  <si>
+    <t>The room was very comfortable, larger than expected, with good-quality furnishings, though I would have liked a computer desk.  It had all of the amenities you'd expect and need - a 2-part bathroom, good-sized fridge, coffee maker, flat screen TV, lots of pillows.Oddly, my only complaint about the room is the shower:  I'm only 5'10" tall, but the showerhead barely cleared my chin!  Also, the temp fluctuated wildly, from cold to near-scalding and back again, during every use, at all times of the day.  Minor annoyances, overall, but worth mentioning, in case ownership reads these.Lastly, it's important to note that it's probably a mile to the Maingate - not walkable, if you have kids.  However, tickets for the ART are sold at the front desk, are reasonably priced, and the stop is less than a block away from the hotel.  BTW, I found out this weekend that if you show your ART ticket to a city bus driver that happens to be headed toward the park, they'll let you on the bus, and drop you at the Maingate bus stop on Harbor Blvd.I'd have no qualms whatsoever staying here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r398246542-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>398246542</t>
+  </si>
+  <si>
+    <t>07/27/2016</t>
+  </si>
+  <si>
+    <t>Disney trip</t>
+  </si>
+  <si>
+    <t>Overall a decent hotel. I misread the distance from Disneyland so it was a little farther than what I would've hoped but oh well. We just parked our car in the Disney parking structure because we like to leave the park and relax for a few hours each day. Another option is to take the ART. The hotel provides a breakfast buffet that offers the same thing everyday: eggs, biscuits, gravy, waffles, toast, cereals, various Danish, yogurt, coffee &amp; juices, apparently- they also have fruit but you better get there early cuz the moms get up early and load up and take off lookin' like Chiquita banana. Great value overall. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Leo A, General Manager at Quality Inn &amp; Suites Anaheim Maingate, responded to this reviewResponded July 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 28, 2016</t>
+  </si>
+  <si>
+    <t>Overall a decent hotel. I misread the distance from Disneyland so it was a little farther than what I would've hoped but oh well. We just parked our car in the Disney parking structure because we like to leave the park and relax for a few hours each day. Another option is to take the ART. The hotel provides a breakfast buffet that offers the same thing everyday: eggs, biscuits, gravy, waffles, toast, cereals, various Danish, yogurt, coffee &amp; juices, apparently- they also have fruit but you better get there early cuz the moms get up early and load up and take off lookin' like Chiquita banana. Great value overall. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r393765134-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>393765134</t>
+  </si>
+  <si>
+    <t>07/17/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family Vaycay </t>
+  </si>
+  <si>
+    <t>My family and I checked out today. We stayed for 3 nights. The room was a nice size and it was clean. We had 2 queen beds. We stayed at this hotel because of price and it was close to Disneyland park. (At the front desk they sell A.R.T. (Anahiem Resort Transit) tickets for the bus to Disneyland park. It's cheaper to buy from the hotel than on the bus. It gives you a day pass.) If your looking for the a decent room on a budget, this place is a good place. If your looking for chocolates on your pillow, and fluffy robes...... You better bring your own. I would stay again. The employees were friendly and the a/c was cold. MoreShow less</t>
+  </si>
+  <si>
+    <t>Leo A, General Manager at Quality Inn &amp; Suites Anaheim Maingate, responded to this reviewResponded July 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2016</t>
+  </si>
+  <si>
+    <t>My family and I checked out today. We stayed for 3 nights. The room was a nice size and it was clean. We had 2 queen beds. We stayed at this hotel because of price and it was close to Disneyland park. (At the front desk they sell A.R.T. (Anahiem Resort Transit) tickets for the bus to Disneyland park. It's cheaper to buy from the hotel than on the bus. It gives you a day pass.) If your looking for the a decent room on a budget, this place is a good place. If your looking for chocolates on your pillow, and fluffy robes...... You better bring your own. I would stay again. The employees were friendly and the a/c was cold. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r389526500-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>389526500</t>
+  </si>
+  <si>
+    <t>07/05/2016</t>
+  </si>
+  <si>
+    <t>Good location and good Choice property</t>
+  </si>
+  <si>
+    <t>We were pleased with the property, room, and breakfast. We had a reservation for two rooms. The rooms were extremely SPACIOUS and the King room had the Jacuzzi which worked just fine. My kids shared the other room with two queen beds. The property does appear to be dated even though they claim that it is newly renovated, but this was not a big deal. Over all the property location was great; we were visiting Knotts Berry farm, it was clean and spacious. The breakfast was fine too; no major complaints, except for at least two of the employees, the female in the AM and the male in the PM. Upon entering the lobby I wished both of them the time of the day and none responded to me. Other that that everything was fine. I will stay here again in the future. Another plus for Choice properties.MoreShow less</t>
+  </si>
+  <si>
+    <t>Leo A, General Manager at Quality Inn &amp; Suites Anaheim Maingate, responded to this reviewResponded July 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 6, 2016</t>
+  </si>
+  <si>
+    <t>We were pleased with the property, room, and breakfast. We had a reservation for two rooms. The rooms were extremely SPACIOUS and the King room had the Jacuzzi which worked just fine. My kids shared the other room with two queen beds. The property does appear to be dated even though they claim that it is newly renovated, but this was not a big deal. Over all the property location was great; we were visiting Knotts Berry farm, it was clean and spacious. The breakfast was fine too; no major complaints, except for at least two of the employees, the female in the AM and the male in the PM. Upon entering the lobby I wished both of them the time of the day and none responded to me. Other that that everything was fine. I will stay here again in the future. Another plus for Choice properties.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r380689882-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>380689882</t>
+  </si>
+  <si>
+    <t>06/07/2016</t>
+  </si>
+  <si>
+    <t>Family holiday worth staying for price</t>
+  </si>
+  <si>
+    <t>It is a clean, well priced room. B'fast we found was the standard at 2 Quality Inns we stayed at in California.  There's a laundromat &amp; Pizza shop 100 m down the road &amp; it's fairly close to Disneyland- About a 20-30 min walk if you want to?  We had a car &amp; drove with 4 of us parking in D'land car park it was cheaper to do than the shuttle.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>It is a clean, well priced room. B'fast we found was the standard at 2 Quality Inns we stayed at in California.  There's a laundromat &amp; Pizza shop 100 m down the road &amp; it's fairly close to Disneyland- About a 20-30 min walk if you want to?  We had a car &amp; drove with 4 of us parking in D'land car park it was cheaper to do than the shuttle.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r362299391-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>362299391</t>
+  </si>
+  <si>
+    <t>04/07/2016</t>
+  </si>
+  <si>
+    <t>post op Doctors visit</t>
+  </si>
+  <si>
+    <t>The front desk was very friendly, the rooms were very clean. we paid in advance, so the price of the room was good. we ended up staying one more night due to some more testing on my wife, the front desk was able to get us a room even though it was short notice, overall experience was great, we will be staying there again......MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>The front desk was very friendly, the rooms were very clean. we paid in advance, so the price of the room was good. we ended up staying one more night due to some more testing on my wife, the front desk was able to get us a room even though it was short notice, overall experience was great, we will be staying there again......More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r354929259-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>354929259</t>
+  </si>
+  <si>
+    <t>03/12/2016</t>
+  </si>
+  <si>
+    <t>Great hotel.</t>
+  </si>
+  <si>
+    <t>We have stayed the past five years, including the former name in the same hotel chain. Excellent  service provided by the staff. Clean updated rooms, We were not up early in am for the breakfasts, Staff remember us from previous stays &amp; go out of their way to make us feels welcome &amp; at home, would highly recommend to anyone i know,close to Disneyland. We watched the fireworks from our room!!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>We have stayed the past five years, including the former name in the same hotel chain. Excellent  service provided by the staff. Clean updated rooms, We were not up early in am for the breakfasts, Staff remember us from previous stays &amp; go out of their way to make us feels welcome &amp; at home, would highly recommend to anyone i know,close to Disneyland. We watched the fireworks from our room!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r350129570-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>350129570</t>
+  </si>
+  <si>
+    <t>02/22/2016</t>
+  </si>
+  <si>
+    <t>Good bargain hotel within walking distance to Disneyland.</t>
+  </si>
+  <si>
+    <t>The room was clean and comfortable. We upgraded to a room with a jetted tub, which was nice after a long day at Disney. The hotel was walking distance from Disney (about a 25 minute walk), but wasn't in the nicest area. An Uber ride was just under $5. The free wifi worked well. Breakfast was a little basic, but included enough options to satisfy us. Overall a good hotel for the price.</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r341960685-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>341960685</t>
+  </si>
+  <si>
+    <t>01/22/2016</t>
+  </si>
+  <si>
+    <t>Not near Maingate</t>
+  </si>
+  <si>
+    <t>The title "main gate" would make me assume somewhere actually near the main gate of Disneyland, not over a mile away. Checked in to hotel late in the evening and there was no parking, which we were charged 5.75 for. Was told to just park in the registration parking spot and worried that our rental car would be towed all night. If you are lucky enough to get a parking spot, they are so tight you can barely get in and out of the cars which is the reason for most people taking up more than 1 spot. Nobody wants to park their car and worry about door dings and not being able to get in and out. The rooms are fairly large, but had a musty smell. The bathroom was not very clean. Tried to plug my phone in to charge it and the plug would not stay in the outlet. Upon checkout was told that they would leave a $75 hold on my credit card for 7 days. This is ridiculous. The room was fully paid and there is no reason to hold any money. I have stayed at many choice hotels and have never been told this or have this happen. Would definitely not stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>The title "main gate" would make me assume somewhere actually near the main gate of Disneyland, not over a mile away. Checked in to hotel late in the evening and there was no parking, which we were charged 5.75 for. Was told to just park in the registration parking spot and worried that our rental car would be towed all night. If you are lucky enough to get a parking spot, they are so tight you can barely get in and out of the cars which is the reason for most people taking up more than 1 spot. Nobody wants to park their car and worry about door dings and not being able to get in and out. The rooms are fairly large, but had a musty smell. The bathroom was not very clean. Tried to plug my phone in to charge it and the plug would not stay in the outlet. Upon checkout was told that they would leave a $75 hold on my credit card for 7 days. This is ridiculous. The room was fully paid and there is no reason to hold any money. I have stayed at many choice hotels and have never been told this or have this happen. Would definitely not stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r339746725-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>339746725</t>
+  </si>
+  <si>
+    <t>01/13/2016</t>
+  </si>
+  <si>
+    <t>In-room hot tub and surprisingly comfortable bed.</t>
+  </si>
+  <si>
+    <t>Surprise! You have a generously large hot tub in your bathroom.  The jets are stronger than most of the jets you experience in hotel jacuzzis--and you get to control the temperature.  I was pleasantly surprised by the cleanliness, the front desk agent was very good, and the bed was comfy.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r339500327-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>339500327</t>
+  </si>
+  <si>
+    <t>01/12/2016</t>
+  </si>
+  <si>
+    <t>Nice rooms, CLEAN, and close enough to the parks!</t>
+  </si>
+  <si>
+    <t>My husband and I visited with our 3 children in May 2015 for a family trip to Disneyland. They had just completed a remodel on our room and were working on the other rooms around us. The noise from the remodel was not bad, as they did the work during daylight hours. Our stay was not disturbed one bit and everything looked nice on the grounds. We were pleasantly surprised to find the room had a sleeper sofa as well as two queens (website we booked on had said nothing about the sofa bed).  Everything was very clean! We were very happy with the room. The included continental breakfast was small but done well. They had cereal, milk, juice, coffee, tea, danish rolls, fruit, oatmeal...the basics. The ONLY reason I would give this motel a 4 instead of a 5 is because the pool was VERY small, which was not properly advertised on the website (the pictures made it look quite big). Like, seriously tiny. Also, the parking lot spaces are extremely narrow. When we stayed there, parking was $5 a day, I think. We drove to the parks each day and paid to park in the Toy Story lot. I would not recommend walking from the motel. Overall a very nice stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>My husband and I visited with our 3 children in May 2015 for a family trip to Disneyland. They had just completed a remodel on our room and were working on the other rooms around us. The noise from the remodel was not bad, as they did the work during daylight hours. Our stay was not disturbed one bit and everything looked nice on the grounds. We were pleasantly surprised to find the room had a sleeper sofa as well as two queens (website we booked on had said nothing about the sofa bed).  Everything was very clean! We were very happy with the room. The included continental breakfast was small but done well. They had cereal, milk, juice, coffee, tea, danish rolls, fruit, oatmeal...the basics. The ONLY reason I would give this motel a 4 instead of a 5 is because the pool was VERY small, which was not properly advertised on the website (the pictures made it look quite big). Like, seriously tiny. Also, the parking lot spaces are extremely narrow. When we stayed there, parking was $5 a day, I think. We drove to the parks each day and paid to park in the Toy Story lot. I would not recommend walking from the motel. Overall a very nice stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r330404401-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>330404401</t>
+  </si>
+  <si>
+    <t>12/02/2015</t>
+  </si>
+  <si>
+    <t>Mini Anniversary Trip to Disneyland</t>
+  </si>
+  <si>
+    <t>I had a two night stay at this hotel and was very pleased with everything. Check in was fast, the front desk staff were prepared and had everything ready so all I had to do was present my ID and sign. We were able to purchase the tickets to Disneyland then and there. We were assigned room 326 which we enjoyed because we could see our car in the parking lot and the Disney fireworks from another window. The room was clean and very spacious. Bed was tidy, no trash on the floor, mirrors were clear as can be. HUGE two person tub and neat towels, shampoo, lotion, conditioner, and soap in the room. The housekeepers were friendly and front desk was super kind and helpful! Thank you so much for a great stay. I will definitely be coming back anytime I need a hotel in the area!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Quality Inn and... M, Guest Relations Manager at Quality Inn &amp; Suites Anaheim Maingate, responded to this reviewResponded December 7, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 7, 2015</t>
+  </si>
+  <si>
+    <t>I had a two night stay at this hotel and was very pleased with everything. Check in was fast, the front desk staff were prepared and had everything ready so all I had to do was present my ID and sign. We were able to purchase the tickets to Disneyland then and there. We were assigned room 326 which we enjoyed because we could see our car in the parking lot and the Disney fireworks from another window. The room was clean and very spacious. Bed was tidy, no trash on the floor, mirrors were clear as can be. HUGE two person tub and neat towels, shampoo, lotion, conditioner, and soap in the room. The housekeepers were friendly and front desk was super kind and helpful! Thank you so much for a great stay. I will definitely be coming back anytime I need a hotel in the area!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r329397449-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>329397449</t>
+  </si>
+  <si>
+    <t>11/27/2015</t>
+  </si>
+  <si>
+    <t>Wonderful Thanksgiving Week stay</t>
+  </si>
+  <si>
+    <t>We check out tomorrow however I wanted to write a review while it was fresh in my memory.  Check in was a breeze.  The front staff was so nice.  Lobby was clean and bright. We reserved the 3 Queen room with a rollaway bed.  We were assigned room 306.   Top floor on the corner. The room was very clean.  Beds and linens were clean.  We received plenty of clean towels and toiletries.  The room has 3 windows which provides natural light.   Loved it.  The grounds are clean too. The bus stop to Disney is approximately 1 block away.  However we used Uber to and from the barks. We enjoyed breakfast.  The waffles were tasty.  We usually ate in our room while getting ready for the parks.  This hotel was fine for our Disney stay.  This hotel is in an older neighbor with a few sketchy people out after hours but we stayed in our rooms and slept at night.  We wpuld stay again. MoreShow less</t>
+  </si>
+  <si>
+    <t>We check out tomorrow however I wanted to write a review while it was fresh in my memory.  Check in was a breeze.  The front staff was so nice.  Lobby was clean and bright. We reserved the 3 Queen room with a rollaway bed.  We were assigned room 306.   Top floor on the corner. The room was very clean.  Beds and linens were clean.  We received plenty of clean towels and toiletries.  The room has 3 windows which provides natural light.   Loved it.  The grounds are clean too. The bus stop to Disney is approximately 1 block away.  However we used Uber to and from the barks. We enjoyed breakfast.  The waffles were tasty.  We usually ate in our room while getting ready for the parks.  This hotel was fine for our Disney stay.  This hotel is in an older neighbor with a few sketchy people out after hours but we stayed in our rooms and slept at night.  We wpuld stay again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r321453272-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>321453272</t>
+  </si>
+  <si>
+    <t>10/24/2015</t>
+  </si>
+  <si>
+    <t>Great stay, would go back</t>
+  </si>
+  <si>
+    <t>The staff were friendly, parking was fine for our little Toyota Yaris rental, breakfast options pretty good. The room was very big, air con and fridge not too loud. We got a room with a view of the fireworks was nice to see them 3 nights in a row from the comfort of our room. The beds were comfy.The ART was very close, we did have to wait 30mins for it one time which was very annoying but the other times it came very quick and even waited for us when we were going back from disneyland.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>The staff were friendly, parking was fine for our little Toyota Yaris rental, breakfast options pretty good. The room was very big, air con and fridge not too loud. We got a room with a view of the fireworks was nice to see them 3 nights in a row from the comfort of our room. The beds were comfy.The ART was very close, we did have to wait 30mins for it one time which was very annoying but the other times it came very quick and even waited for us when we were going back from disneyland.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r310041776-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>310041776</t>
+  </si>
+  <si>
+    <t>09/13/2015</t>
+  </si>
+  <si>
+    <t>Clean, Professional  and Friendly!</t>
+  </si>
+  <si>
+    <t>Very nice hotel. Professional staff. Very organized and the beds are so comfortable! I like the fact it has an elevator. A lot of hotels around here do not. Rooms have fridge and microwave and coffee maker too! The TV is crystal clear. And the rooms have a lot of mirrors. Also the lighting in the rooms are nice. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Quality Inn and... M, Guest Relations Manager at Quality Inn &amp; Suites Anaheim Maingate, responded to this reviewResponded September 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 21, 2015</t>
+  </si>
+  <si>
+    <t>Very nice hotel. Professional staff. Very organized and the beds are so comfortable! I like the fact it has an elevator. A lot of hotels around here do not. Rooms have fridge and microwave and coffee maker too! The TV is crystal clear. And the rooms have a lot of mirrors. Also the lighting in the rooms are nice. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r309619912-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>309619912</t>
+  </si>
+  <si>
+    <t>09/12/2015</t>
+  </si>
+  <si>
+    <t>Wonderful Hotel</t>
+  </si>
+  <si>
+    <t>This motel has been one of the best motel stay we had ever stayed in the Disneyland Area. Check in was super easy and Ruby was amazing and helpful. She told me it better to walk the 10 minute walk instead of paying 17 dollars for parking. When I got back from the parks the bed was so comfortable I slept through my alarm. The room was huge, a lot bigger then my stay at other hotels in the Disneyland area. It was so quiet I did not  hear any traffic from Harbor Street. Even check out was a breeze. I know I will be staying there again.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>This motel has been one of the best motel stay we had ever stayed in the Disneyland Area. Check in was super easy and Ruby was amazing and helpful. She told me it better to walk the 10 minute walk instead of paying 17 dollars for parking. When I got back from the parks the bed was so comfortable I slept through my alarm. The room was huge, a lot bigger then my stay at other hotels in the Disneyland area. It was so quiet I did not  hear any traffic from Harbor Street. Even check out was a breeze. I know I will be staying there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r307358266-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>307358266</t>
+  </si>
+  <si>
+    <t>09/05/2015</t>
+  </si>
+  <si>
+    <t>On par with other motels around the price</t>
+  </si>
+  <si>
+    <t>Whist the rooms are very large and spacious, there are a few little things that makes the layout annoying.
+There is only a small table and chair to set at, and not very comfortable.  The TV is fixed to the wall, so you are unable to move it to few it from the table and chair, you have to be sitting on the bed.  There really is not enough storage eg, cupboards draws in each room.
+We stayed 5 days, finishing off our trip to the USA, by staying here.  We used a hotel booking site, and the booking went through okay.  We were charged $5.00 a day to park our car, very tight if there is a few large vehicles in the parking area also, as well as $5.00 a day resort fee.  Still trying to work that one out.  If it was for use of the pool, it is concerning, as the pool may appear big in the pictures, it is not really.  It was clean however.
+Breakfast is okay.  There are only four tables each with three seats.  This means a lot of eating breakfast in your room on the small table and uncomfortable chairs.
+The ART (Anaheim Resort Transport) stops about 200 meters down the road.  Tickets can be bought from the reception area.  $5.00 a day.  The bus takes you to Disney and California Adventure.  It is route 10 for when you need to get...Whist the rooms are very large and spacious, there are a few little things that makes the layout annoying.There is only a small table and chair to set at, and not very comfortable.  The TV is fixed to the wall, so you are unable to move it to few it from the table and chair, you have to be sitting on the bed.  There really is not enough storage eg, cupboards draws in each room.We stayed 5 days, finishing off our trip to the USA, by staying here.  We used a hotel booking site, and the booking went through okay.  We were charged $5.00 a day to park our car, very tight if there is a few large vehicles in the parking area also, as well as $5.00 a day resort fee.  Still trying to work that one out.  If it was for use of the pool, it is concerning, as the pool may appear big in the pictures, it is not really.  It was clean however.Breakfast is okay.  There are only four tables each with three seats.  This means a lot of eating breakfast in your room on the small table and uncomfortable chairs.The ART (Anaheim Resort Transport) stops about 200 meters down the road.  Tickets can be bought from the reception area.  $5.00 a day.  The bus takes you to Disney and California Adventure.  It is route 10 for when you need to get back to the hotel.Front office staff were friendly and knowledgeable.  Housekeepers do a great job, but a room being done at 4.00pm is a little late.  If you like big fluffy bath towels, you had better bring your own, because the small threadbare ones in the bathrooms do need replacing.MoreShow less</t>
+  </si>
+  <si>
+    <t>Whist the rooms are very large and spacious, there are a few little things that makes the layout annoying.
+There is only a small table and chair to set at, and not very comfortable.  The TV is fixed to the wall, so you are unable to move it to few it from the table and chair, you have to be sitting on the bed.  There really is not enough storage eg, cupboards draws in each room.
+We stayed 5 days, finishing off our trip to the USA, by staying here.  We used a hotel booking site, and the booking went through okay.  We were charged $5.00 a day to park our car, very tight if there is a few large vehicles in the parking area also, as well as $5.00 a day resort fee.  Still trying to work that one out.  If it was for use of the pool, it is concerning, as the pool may appear big in the pictures, it is not really.  It was clean however.
+Breakfast is okay.  There are only four tables each with three seats.  This means a lot of eating breakfast in your room on the small table and uncomfortable chairs.
+The ART (Anaheim Resort Transport) stops about 200 meters down the road.  Tickets can be bought from the reception area.  $5.00 a day.  The bus takes you to Disney and California Adventure.  It is route 10 for when you need to get...Whist the rooms are very large and spacious, there are a few little things that makes the layout annoying.There is only a small table and chair to set at, and not very comfortable.  The TV is fixed to the wall, so you are unable to move it to few it from the table and chair, you have to be sitting on the bed.  There really is not enough storage eg, cupboards draws in each room.We stayed 5 days, finishing off our trip to the USA, by staying here.  We used a hotel booking site, and the booking went through okay.  We were charged $5.00 a day to park our car, very tight if there is a few large vehicles in the parking area also, as well as $5.00 a day resort fee.  Still trying to work that one out.  If it was for use of the pool, it is concerning, as the pool may appear big in the pictures, it is not really.  It was clean however.Breakfast is okay.  There are only four tables each with three seats.  This means a lot of eating breakfast in your room on the small table and uncomfortable chairs.The ART (Anaheim Resort Transport) stops about 200 meters down the road.  Tickets can be bought from the reception area.  $5.00 a day.  The bus takes you to Disney and California Adventure.  It is route 10 for when you need to get back to the hotel.Front office staff were friendly and knowledgeable.  Housekeepers do a great job, but a room being done at 4.00pm is a little late.  If you like big fluffy bath towels, you had better bring your own, because the small threadbare ones in the bathrooms do need replacing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r300899475-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>300899475</t>
+  </si>
+  <si>
+    <t>08/18/2015</t>
+  </si>
+  <si>
+    <t>Very good motel. Clean, Nice, But a Little Far From Disneyland.</t>
+  </si>
+  <si>
+    <t>My sister, my niece and me stayed  in the Quality Inn &amp; Suites Maingate in the middle of July 2015. The Motel is with a small car parking surrounding   with a 2 stories high of rooms.  The room was big with two Queen size beds.  Clean and nice like a typical American Motel, slightly outdated and old . The location isn't very good if you're visiting Disneyland. The Motel is in the other side of the town across the Freeway - something like 15 Min. walk to Disneyland and not pleasant if you consider coming back late from the park. The price was a little bit above what I think is a good value - around 200$ -  but considering  the HUGE  demand of tourists in this time of year its understandable.  All in all between Average and Very Good.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>My sister, my niece and me stayed  in the Quality Inn &amp; Suites Maingate in the middle of July 2015. The Motel is with a small car parking surrounding   with a 2 stories high of rooms.  The room was big with two Queen size beds.  Clean and nice like a typical American Motel, slightly outdated and old . The location isn't very good if you're visiting Disneyland. The Motel is in the other side of the town across the Freeway - something like 15 Min. walk to Disneyland and not pleasant if you consider coming back late from the park. The price was a little bit above what I think is a good value - around 200$ -  but considering  the HUGE  demand of tourists in this time of year its understandable.  All in all between Average and Very Good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r299716316-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>299716316</t>
+  </si>
+  <si>
+    <t>08/15/2015</t>
+  </si>
+  <si>
+    <t>More than comfortable!</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for 4 nights. We found the hotel to clean and comfortable. The front desk staff were helpful and professional. We found that it was in a good location for a short drive to Disneyland. My children enjoyed the pool despite it's small size.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r298371840-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>298371840</t>
+  </si>
+  <si>
+    <t>08/12/2015</t>
+  </si>
+  <si>
+    <t>Love This Place</t>
+  </si>
+  <si>
+    <t>The staff was helpful. Convenient location. Short walk around the block to Disneyland. Rooms are comfortable and clean. Very reasonable price for the location. Free hot breakfast is great for families. Parking fee is reasonable compared to the parking lot fees. Pool was clean. If you are looking for a clean inexpensive place to stay near the resort or close to freeway access, this place is great. We stay with our kids and get the extra bed. Plenty of room for the 5 of us. Microwave and refrigerator are very convenient for our lunches or snacks for a day at the park.</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r293361091-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>293361091</t>
+  </si>
+  <si>
+    <t>07/28/2015</t>
+  </si>
+  <si>
+    <t>Good visit</t>
+  </si>
+  <si>
+    <t>I enjoyed our room, the beds and pillows were comfortable. Our room was always cleaned well. The room was large and had a nice large bathroom counter that was separate from the toilet area, which was great. The only down side is the parking, if you plan on returning to your room late you may not have a parking space. There is also a parking fee. The hotel is a very easy drive to the Mickey and Friends parking lot. The breakfast was just fair, we ate at it once then decided to go other places to eat the other days. Alfred, who checked us in, was very nice and helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>I enjoyed our room, the beds and pillows were comfortable. Our room was always cleaned well. The room was large and had a nice large bathroom counter that was separate from the toilet area, which was great. The only down side is the parking, if you plan on returning to your room late you may not have a parking space. There is also a parking fee. The hotel is a very easy drive to the Mickey and Friends parking lot. The breakfast was just fair, we ate at it once then decided to go other places to eat the other days. Alfred, who checked us in, was very nice and helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r289111816-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>289111816</t>
+  </si>
+  <si>
+    <t>07/15/2015</t>
+  </si>
+  <si>
+    <t>Free Is Not So Free</t>
+  </si>
+  <si>
+    <t>We were in town for a one-day visit to Disneyland. We used our points to pay for a two night stay. The room was large, clean, though showing its wear, and had everything expected at a Quality Inn. Which was fine since we didn't come to stay in the room. Nice view of the Disneyland fireworks. (Which if you are not in town for Disneyland, I could see how that would be annoying, but was a bonus for us.) The hotel is convenient to Disney. The only negative I would mention is the parking lot. First, you have to pay to park. So even though our stay was free, we had to pay $22 to park. Second, the lot was small. If all the guests were there for Disney (with mini vans and Toyotas), that would be fine. But there are contract workers staying overnight with large utility trucks. Those who arrive late will have to get creative. I watched a few vehicles, including a utility truck drive into the parking lot only to make a "three-point turn" to get out of the closed in lot. I don't know if there was more parking elsewhere or if you had to park on the street. I hope the parking fee was removed if you did have to park elsewhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>We were in town for a one-day visit to Disneyland. We used our points to pay for a two night stay. The room was large, clean, though showing its wear, and had everything expected at a Quality Inn. Which was fine since we didn't come to stay in the room. Nice view of the Disneyland fireworks. (Which if you are not in town for Disneyland, I could see how that would be annoying, but was a bonus for us.) The hotel is convenient to Disney. The only negative I would mention is the parking lot. First, you have to pay to park. So even though our stay was free, we had to pay $22 to park. Second, the lot was small. If all the guests were there for Disney (with mini vans and Toyotas), that would be fine. But there are contract workers staying overnight with large utility trucks. Those who arrive late will have to get creative. I watched a few vehicles, including a utility truck drive into the parking lot only to make a "three-point turn" to get out of the closed in lot. I don't know if there was more parking elsewhere or if you had to park on the street. I hope the parking fee was removed if you did have to park elsewhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r287783155-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>287783155</t>
+  </si>
+  <si>
+    <t>07/10/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reasonable price for large room. </t>
+  </si>
+  <si>
+    <t>My son and I stayed here very happily for a week in June. This facility has spacious rooms. We had two comfortable  queen beds with ample space left over for a mini fridge unit (microwave and coffee supplies sat on top of the unit), an LED TV which sat on a fair sized dresser, a table and two chairs and five large suitcases. We had more than enough room to move around safely in the room. There was a small wall safe located in a large vanity area. The bathroom was quite clean and spacious and the carpets were clean as well. They had an elevator which helped getting upstairs after a long day a breeze. The office staff was easy to work with and the cleaning staff was very nice. They bent over backwards to make your stay a pleasant one.  I booked on-line and was quoted a rate that was higher than the AAA book rated. I went to the office and they graciously adjusted my rate - no fuss involved. One of the freebies of staying at this hotel is that you can see the complete Disney Land fireworks show from the walkways outside your room or from the parking lot. I'd definitely stay here again MoreShow less</t>
+  </si>
+  <si>
+    <t>My son and I stayed here very happily for a week in June. This facility has spacious rooms. We had two comfortable  queen beds with ample space left over for a mini fridge unit (microwave and coffee supplies sat on top of the unit), an LED TV which sat on a fair sized dresser, a table and two chairs and five large suitcases. We had more than enough room to move around safely in the room. There was a small wall safe located in a large vanity area. The bathroom was quite clean and spacious and the carpets were clean as well. They had an elevator which helped getting upstairs after a long day a breeze. The office staff was easy to work with and the cleaning staff was very nice. They bent over backwards to make your stay a pleasant one.  I booked on-line and was quoted a rate that was higher than the AAA book rated. I went to the office and they graciously adjusted my rate - no fuss involved. One of the freebies of staying at this hotel is that you can see the complete Disney Land fireworks show from the walkways outside your room or from the parking lot. I'd definitely stay here again More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r284582408-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>284582408</t>
+  </si>
+  <si>
+    <t>06/30/2015</t>
+  </si>
+  <si>
+    <t>best place to stay when going to  disneyland</t>
+  </si>
+  <si>
+    <t>the rooms are very nice and have everything  you need very clean and safe and the price is great  even have breakfast always a happy stay for our family  the beltrans saved the best for last the staff is awesome  ALFRED  also david  and paul again ALFRED you always  make our stays like were at home your  the best lisa&amp;familyMoreShow less</t>
+  </si>
+  <si>
+    <t>Quality Inn and... M, Front Office Manager at Quality Inn &amp; Suites Anaheim Maingate, responded to this reviewResponded July 9, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 9, 2015</t>
+  </si>
+  <si>
+    <t>the rooms are very nice and have everything  you need very clean and safe and the price is great  even have breakfast always a happy stay for our family  the beltrans saved the best for last the staff is awesome  ALFRED  also david  and paul again ALFRED you always  make our stays like were at home your  the best lisa&amp;familyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r284045442-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>284045442</t>
+  </si>
+  <si>
+    <t>06/29/2015</t>
+  </si>
+  <si>
+    <t>Good place to stay for a Disneyland visit.</t>
+  </si>
+  <si>
+    <t>My wife and I, along with our four children spent six nights at the Quality Inn &amp; Suites Maingate the week of June 21st through the 27th.
+Pros:  Very friendly staff who'll probably bend over backwards to make your stay pleasant, about 3/4 of a mile from Disneyland, clean, comfortable, and recently refurbished rooms, and a great view of the Disneyland fireworks each night (assuming you're not in the park), nice breakfast (although the breakfast nook is relatively small).
+Cons: VERY tight parking (will discuss below), fees that aren't disclosed on the hotel's website (example:  they charge a $5.75 a night "resort" fee).  
+Overall, we had a good time staying here.  As I pointed out, the staff was very friendly and helpful.  If we needed towels, they brought us extras.  Good breakfast selection, especially for such a small (relatively speaking) hotel.  I would feel good about staying here again if the opportunity arose.
+On the downside, the parking is VERY tight, except for one spot at the end of the swimming pool (if you stay here, you'll know which spot I'm talking about).  After walking to the park for two days and about killing ourselves (walking to and from + walking in the park all day is a bit much), we drove and parked in the DIsney lot.  One night, when we came back, I parked relatively close to a wall on the passenger side of my vehicle so that...My wife and I, along with our four children spent six nights at the Quality Inn &amp; Suites Maingate the week of June 21st through the 27th.Pros:  Very friendly staff who'll probably bend over backwards to make your stay pleasant, about 3/4 of a mile from Disneyland, clean, comfortable, and recently refurbished rooms, and a great view of the Disneyland fireworks each night (assuming you're not in the park), nice breakfast (although the breakfast nook is relatively small).Cons: VERY tight parking (will discuss below), fees that aren't disclosed on the hotel's website (example:  they charge a $5.75 a night "resort" fee).  Overall, we had a good time staying here.  As I pointed out, the staff was very friendly and helpful.  If we needed towels, they brought us extras.  Good breakfast selection, especially for such a small (relatively speaking) hotel.  I would feel good about staying here again if the opportunity arose.On the downside, the parking is VERY tight, except for one spot at the end of the swimming pool (if you stay here, you'll know which spot I'm talking about).  After walking to the park for two days and about killing ourselves (walking to and from + walking in the park all day is a bit much), we drove and parked in the DIsney lot.  One night, when we came back, I parked relatively close to a wall on the passenger side of my vehicle so that the person parked on the driver's side wouldn't ding up my vehicle.  Want to guess what happened the next day?  Yep, nice huge drag mark from the slob who pushed their car door into my van's sliding door (Yes, I saw the person do it).  Not the fault of the hotel, but I would watch carefully when parking here because there are plenty of folks who don't give a damn about your property.The hotel also needs to disclose ALL of its fees.  They do disclose their parking fee, but then they tacked on an additional "resort" fee of $5.75 per night that was not disclosed on their website.  Just tell us all of the fees up front, please!Outside of the parking situation and the fees, I would recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>My wife and I, along with our four children spent six nights at the Quality Inn &amp; Suites Maingate the week of June 21st through the 27th.
+Pros:  Very friendly staff who'll probably bend over backwards to make your stay pleasant, about 3/4 of a mile from Disneyland, clean, comfortable, and recently refurbished rooms, and a great view of the Disneyland fireworks each night (assuming you're not in the park), nice breakfast (although the breakfast nook is relatively small).
+Cons: VERY tight parking (will discuss below), fees that aren't disclosed on the hotel's website (example:  they charge a $5.75 a night "resort" fee).  
+Overall, we had a good time staying here.  As I pointed out, the staff was very friendly and helpful.  If we needed towels, they brought us extras.  Good breakfast selection, especially for such a small (relatively speaking) hotel.  I would feel good about staying here again if the opportunity arose.
+On the downside, the parking is VERY tight, except for one spot at the end of the swimming pool (if you stay here, you'll know which spot I'm talking about).  After walking to the park for two days and about killing ourselves (walking to and from + walking in the park all day is a bit much), we drove and parked in the DIsney lot.  One night, when we came back, I parked relatively close to a wall on the passenger side of my vehicle so that...My wife and I, along with our four children spent six nights at the Quality Inn &amp; Suites Maingate the week of June 21st through the 27th.Pros:  Very friendly staff who'll probably bend over backwards to make your stay pleasant, about 3/4 of a mile from Disneyland, clean, comfortable, and recently refurbished rooms, and a great view of the Disneyland fireworks each night (assuming you're not in the park), nice breakfast (although the breakfast nook is relatively small).Cons: VERY tight parking (will discuss below), fees that aren't disclosed on the hotel's website (example:  they charge a $5.75 a night "resort" fee).  Overall, we had a good time staying here.  As I pointed out, the staff was very friendly and helpful.  If we needed towels, they brought us extras.  Good breakfast selection, especially for such a small (relatively speaking) hotel.  I would feel good about staying here again if the opportunity arose.On the downside, the parking is VERY tight, except for one spot at the end of the swimming pool (if you stay here, you'll know which spot I'm talking about).  After walking to the park for two days and about killing ourselves (walking to and from + walking in the park all day is a bit much), we drove and parked in the DIsney lot.  One night, when we came back, I parked relatively close to a wall on the passenger side of my vehicle so that the person parked on the driver's side wouldn't ding up my vehicle.  Want to guess what happened the next day?  Yep, nice huge drag mark from the slob who pushed their car door into my van's sliding door (Yes, I saw the person do it).  Not the fault of the hotel, but I would watch carefully when parking here because there are plenty of folks who don't give a damn about your property.The hotel also needs to disclose ALL of its fees.  They do disclose their parking fee, but then they tacked on an additional "resort" fee of $5.75 per night that was not disclosed on their website.  Just tell us all of the fees up front, please!Outside of the parking situation and the fees, I would recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r283363399-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>283363399</t>
+  </si>
+  <si>
+    <t>06/27/2015</t>
+  </si>
+  <si>
+    <t>The two night stay at Quality Inn &amp; Suites Maingate!</t>
+  </si>
+  <si>
+    <t>We arrive around 8 p.m. To Anaheim, California.  We happened to notice Quality Inn &amp; Suites Maingate. There was a man at the front desk. I did not think to get his name. He was very nice and very helpful. We were so happy we were able to get a room here. We had a problem with the safe in the room.  The man at the front desk sent two nice maintenance men to assist us with the safe in the room. The man at the front desk called our room. To check on us, to make sure the problem with the safe was fixed. The two mornings we were there. Ruby was very helpful. She answered all of our questions. It makes a difference when people care.MoreShow less</t>
+  </si>
+  <si>
+    <t>We arrive around 8 p.m. To Anaheim, California.  We happened to notice Quality Inn &amp; Suites Maingate. There was a man at the front desk. I did not think to get his name. He was very nice and very helpful. We were so happy we were able to get a room here. We had a problem with the safe in the room.  The man at the front desk sent two nice maintenance men to assist us with the safe in the room. The man at the front desk called our room. To check on us, to make sure the problem with the safe was fixed. The two mornings we were there. Ruby was very helpful. She answered all of our questions. It makes a difference when people care.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r279961573-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>279961573</t>
+  </si>
+  <si>
+    <t>06/13/2015</t>
+  </si>
+  <si>
+    <t>Vacation</t>
+  </si>
+  <si>
+    <t>This a great place to stay only ten minutes from Disney Ruby was very helpfull to us she even sold us the bus tickets so that we wouldn't have to take our car and save us a lot of hassle veryclean and quiet I will stay here again and we recommend to friends.MoreShow less</t>
+  </si>
+  <si>
+    <t>Quality Inn and... M, Front Office Manager at Quality Inn &amp; Suites Anaheim Maingate, responded to this reviewResponded June 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 18, 2015</t>
+  </si>
+  <si>
+    <t>This a great place to stay only ten minutes from Disney Ruby was very helpfull to us she even sold us the bus tickets so that we wouldn't have to take our car and save us a lot of hassle veryclean and quiet I will stay here again and we recommend to friends.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r279487451-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>279487451</t>
+  </si>
+  <si>
+    <t>06/11/2015</t>
+  </si>
+  <si>
+    <t>Saucedo trip</t>
+  </si>
+  <si>
+    <t>Double queen spacious for our family, very Clean, after check in front desk called to make sure everything was ok. Breakfast was great kids enjoyed waffles only suggest to put in another waffle maker and more tables and chairs. Clerks were extremely profession. When we checked out and my husband forgot his licence at the desk, the clerk ran behind us almost 2 blocks away to return it.. they are great. And most definitely will stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Double queen spacious for our family, very Clean, after check in front desk called to make sure everything was ok. Breakfast was great kids enjoyed waffles only suggest to put in another waffle maker and more tables and chairs. Clerks were extremely profession. When we checked out and my husband forgot his licence at the desk, the clerk ran behind us almost 2 blocks away to return it.. they are great. And most definitely will stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r279311143-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>279311143</t>
+  </si>
+  <si>
+    <t>06/10/2015</t>
+  </si>
+  <si>
+    <t>Spacious</t>
+  </si>
+  <si>
+    <t>We got the 3 bed queen room. Very spacious, clean and comfortable. The room needed more lighting and the ac does not cool the far bed very well because of the divider wall. Breakfast was good. No free shuttle to Disneyland as advertised. Staff friendly. Parking was difficult, when you come in later all the spots are full. Luckily they let us park in the reservation parking. The toilet did not flush on the very first use the brought a plunger up right away. MoreShow less</t>
+  </si>
+  <si>
+    <t>We got the 3 bed queen room. Very spacious, clean and comfortable. The room needed more lighting and the ac does not cool the far bed very well because of the divider wall. Breakfast was good. No free shuttle to Disneyland as advertised. Staff friendly. Parking was difficult, when you come in later all the spots are full. Luckily they let us park in the reservation parking. The toilet did not flush on the very first use the brought a plunger up right away. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r270664658-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>270664658</t>
+  </si>
+  <si>
+    <t>05/07/2015</t>
+  </si>
+  <si>
+    <t>Great place to stay in Anaheim</t>
+  </si>
+  <si>
+    <t>I was on a business trip not going to Disneyland, but even if you are going there it's only a few blocks away.  I could see the nightly Disney fireworks from my room.  The room was very spacious, super clean and comfortable.  The staff were very helpful and aside from the Disney fireworks it was very quiet.  The microwave and mid-size fridge in the room were super and the price was great too!  I would definitely stay here again.-JohnMoreShow less</t>
+  </si>
+  <si>
+    <t>Quality Inn and... M, Guest Relations Manager at Quality Inn &amp; Suites Anaheim Maingate, responded to this reviewResponded May 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 18, 2015</t>
+  </si>
+  <si>
+    <t>I was on a business trip not going to Disneyland, but even if you are going there it's only a few blocks away.  I could see the nightly Disney fireworks from my room.  The room was very spacious, super clean and comfortable.  The staff were very helpful and aside from the Disney fireworks it was very quiet.  The microwave and mid-size fridge in the room were super and the price was great too!  I would definitely stay here again.-JohnMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r269223555-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>269223555</t>
+  </si>
+  <si>
+    <t>05/01/2015</t>
+  </si>
+  <si>
+    <t>Perfect hotel for us while visiting Disneyland</t>
+  </si>
+  <si>
+    <t>I took my daughter and her family to Disneyland.  We had the room with 3 queen beds.  The room was big, clean, and perfect for our group of 5.  Having breakfast at the hotel worked out great as we had 2 4yr old girls with us.  The staff was friendly and always greeted us with a smile.  We also enjoyed the pool one afternoon which was a great break from the parks.  Staying here made the trip so much more affordable and I was able to indulge my family without worrying about cost.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Quality Inn and... M, Guest Relations Manager at Quality Inn &amp; Suites Anaheim Maingate, responded to this reviewResponded May 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 6, 2015</t>
+  </si>
+  <si>
+    <t>I took my daughter and her family to Disneyland.  We had the room with 3 queen beds.  The room was big, clean, and perfect for our group of 5.  Having breakfast at the hotel worked out great as we had 2 4yr old girls with us.  The staff was friendly and always greeted us with a smile.  We also enjoyed the pool one afternoon which was a great break from the parks.  Staying here made the trip so much more affordable and I was able to indulge my family without worrying about cost.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r266912094-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>266912094</t>
+  </si>
+  <si>
+    <t>04/20/2015</t>
+  </si>
+  <si>
+    <t>Disneyland trip</t>
+  </si>
+  <si>
+    <t>i had three room for my whole family the staf was  awesome .. The breakfast was really good... Check-in was fast... And  literally minutes from Disneyland... The one and only negative thing I have to say is the parking it's really tight but I would  definitely stay their over and over....MoreShow less</t>
+  </si>
+  <si>
+    <t>i had three room for my whole family the staf was  awesome .. The breakfast was really good... Check-in was fast... And  literally minutes from Disneyland... The one and only negative thing I have to say is the parking it's really tight but I would  definitely stay their over and over....More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r254983881-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>254983881</t>
+  </si>
+  <si>
+    <t>02/18/2015</t>
+  </si>
+  <si>
+    <t>Spacious nice rooms, ok breakfast</t>
+  </si>
+  <si>
+    <t>Great choice for families or groups as the rooms are large, plenty of counterspace, and storage, even the fridge is larger than typical hotel room. Beds were very comfortable. It is a quick 3-5 minute drive to main Disney parking. Walking would be probably 30 min and over a freeway overpass. Worth it to drive and pay $17 for parking. Front desk and housekeeping were the kindest most helpful and friendly I've encountered in any hotel. Excellent service. Albert at front desk printed our park tickets for us.  Only con is that the "deluxe continental" breakfast was disappointing. ( waffle bar, cereal,pastries, juice, biscuits and gravy,) A few protein additions like peanut butter, Hard boiled eggs, and raisins for oatmeal would improve the breakfast. Parking was tight and hard to back out but that is minor also small outdoor pool but who has time to swim after disneyland. All in all a great place. I would definitely stay here again for the service and spacious rooms.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Quality Inn and... M, Guest Relations Manager at Quality Inn &amp; Suites Anaheim Maingate, responded to this reviewResponded March 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 10, 2015</t>
+  </si>
+  <si>
+    <t>Great choice for families or groups as the rooms are large, plenty of counterspace, and storage, even the fridge is larger than typical hotel room. Beds were very comfortable. It is a quick 3-5 minute drive to main Disney parking. Walking would be probably 30 min and over a freeway overpass. Worth it to drive and pay $17 for parking. Front desk and housekeeping were the kindest most helpful and friendly I've encountered in any hotel. Excellent service. Albert at front desk printed our park tickets for us.  Only con is that the "deluxe continental" breakfast was disappointing. ( waffle bar, cereal,pastries, juice, biscuits and gravy,) A few protein additions like peanut butter, Hard boiled eggs, and raisins for oatmeal would improve the breakfast. Parking was tight and hard to back out but that is minor also small outdoor pool but who has time to swim after disneyland. All in all a great place. I would definitely stay here again for the service and spacious rooms.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r254697976-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>254697976</t>
+  </si>
+  <si>
+    <t>02/17/2015</t>
+  </si>
+  <si>
+    <t>VERY Disappointed! Filthy Carpets, Uncomfortable Bed and Pillows, Just Cheap!</t>
+  </si>
+  <si>
+    <t>Our stay started with a 45 minute wait in the lobby because our room wasn't ready despite a 3pm check-in guarantee. The staff did nothing to accommodate us for this inconvenience, save a feigned, "sorry". To make matters worse during our wait the staff attempted to charge a parking fee in addition to the room charge despite our reservation stating "free parking". The room was haphazardly cleaned and the carpets filthy. We had to wear sandals because walking on the carpet left a gross sticky residue and layers of dirt on our feet. additionally the small cheap pillows and uncomfortable mattresses resulted in a terrible night's sleep and a sore back and neck. One of the beds was noticeable indented from it's use. Perhaps they should replace old furniture and upgrade the pillows. They reminded me of the cheap pillows you get on an airplane. I wished I had brought my own. Also no one came by to clean the room until 5pm the next day. It would have been nice to come back to a clean room. And by the time they finally came by we were all tired and not inclined to move out of the room again. The staff were nice but the accommodations were not worth the fees. I wouldn't stay here again nor recommend this hotel to anyone. We were very disappointed.MoreShow less</t>
+  </si>
+  <si>
+    <t>Quality Inn and... M, Guest Relations Manager at Quality Inn &amp; Suites Anaheim Maingate, responded to this reviewResponded February 26, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 26, 2015</t>
+  </si>
+  <si>
+    <t>Our stay started with a 45 minute wait in the lobby because our room wasn't ready despite a 3pm check-in guarantee. The staff did nothing to accommodate us for this inconvenience, save a feigned, "sorry". To make matters worse during our wait the staff attempted to charge a parking fee in addition to the room charge despite our reservation stating "free parking". The room was haphazardly cleaned and the carpets filthy. We had to wear sandals because walking on the carpet left a gross sticky residue and layers of dirt on our feet. additionally the small cheap pillows and uncomfortable mattresses resulted in a terrible night's sleep and a sore back and neck. One of the beds was noticeable indented from it's use. Perhaps they should replace old furniture and upgrade the pillows. They reminded me of the cheap pillows you get on an airplane. I wished I had brought my own. Also no one came by to clean the room until 5pm the next day. It would have been nice to come back to a clean room. And by the time they finally came by we were all tired and not inclined to move out of the room again. The staff were nice but the accommodations were not worth the fees. I wouldn't stay here again nor recommend this hotel to anyone. We were very disappointed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r253558268-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>253558268</t>
+  </si>
+  <si>
+    <t>02/10/2015</t>
+  </si>
+  <si>
+    <t>Excellent family hotel.</t>
+  </si>
+  <si>
+    <t>I rented two rooms for myself and family,which included two small children. Spacious,clean rooms, very good breakfast and facilities,excellent staff,and good location to Disney Parks. An unusual situation happened, and the staff couldn't have been more professional. MoreShow less</t>
+  </si>
+  <si>
+    <t>I rented two rooms for myself and family,which included two small children. Spacious,clean rooms, very good breakfast and facilities,excellent staff,and good location to Disney Parks. An unusual situation happened, and the staff couldn't have been more professional. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r251558675-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>251558675</t>
+  </si>
+  <si>
+    <t>01/28/2015</t>
+  </si>
+  <si>
+    <t>Would give more than a 5 on service if I could</t>
+  </si>
+  <si>
+    <t>Accidentally left a jacket behind and the hotel staff was absolutely awesome in helping me get it back - even went as far as directly dropping it off at the Post Office because the postal carrier wouldn't take my return envelope as is with the postage. On top of that, the staff called at least three times to inform me of the steps they were taking and then to confirm I had successfully received my jacket in the mail.MoreShow less</t>
+  </si>
+  <si>
+    <t>Quality Inn and... M, Guest Relations Manager at Quality Inn &amp; Suites Anaheim Maingate, responded to this reviewResponded February 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 10, 2015</t>
+  </si>
+  <si>
+    <t>Accidentally left a jacket behind and the hotel staff was absolutely awesome in helping me get it back - even went as far as directly dropping it off at the Post Office because the postal carrier wouldn't take my return envelope as is with the postage. On top of that, the staff called at least three times to inform me of the steps they were taking and then to confirm I had successfully received my jacket in the mail.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r250931193-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>250931193</t>
+  </si>
+  <si>
+    <t>01/25/2015</t>
+  </si>
+  <si>
+    <t>Comfortable and HONEST</t>
+  </si>
+  <si>
+    <t>We had a wonderful stay for our family trip to Disney. We rode the shuttle a block from Hotel to the front gate and back. We could even see the fireworks perfectly from the hotel balcony. It was also great to have a quick bite to eat with the continental breakfast before heading out to Disney. Most importantly, we must praise the honesty of housekeeping. We left behind a substantial amount of money, about $400 in the room upon check out. It had fallen out of our pocket under the bed skirt. We didn't realize it until we were almost to Arizona. We phoned the Hotel and they called us in about an hour to tell us they found our cash. It was amazing and our way home 5 days later, we went back and picked it up. Thank you Quality Inn for your honesty and a great stay!!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Quality Inn and... M, Guest Relations Manager at Quality Inn &amp; Suites Anaheim Maingate, responded to this reviewResponded January 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 28, 2015</t>
+  </si>
+  <si>
+    <t>We had a wonderful stay for our family trip to Disney. We rode the shuttle a block from Hotel to the front gate and back. We could even see the fireworks perfectly from the hotel balcony. It was also great to have a quick bite to eat with the continental breakfast before heading out to Disney. Most importantly, we must praise the honesty of housekeeping. We left behind a substantial amount of money, about $400 in the room upon check out. It had fallen out of our pocket under the bed skirt. We didn't realize it until we were almost to Arizona. We phoned the Hotel and they called us in about an hour to tell us they found our cash. It was amazing and our way home 5 days later, we went back and picked it up. Thank you Quality Inn for your honesty and a great stay!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r250805114-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>250805114</t>
+  </si>
+  <si>
+    <t>01/24/2015</t>
+  </si>
+  <si>
+    <t>clean quiet professional and efficient</t>
+  </si>
+  <si>
+    <t>I recently had a fire at my house and I have been forced to stay in hotels for a couple of weeks due to the rehabilitation efforts.  I was told by the construction workers at my house if you ready on a certain date it was not I had to make the reservations here last minute through website and after booking my stay there were no problems I showed up the night clerk book me in in less than 10 minutes take into account the fact that I didn't have any former state ID only had a passportI requested a king size bed and got it is one of the most comfortable hotel beds I've slept in. The room was spotless plenty of towels refrigerator coffee maker iron and ironing board and there were no people hanging around in the parking lot past dark like other hotels in Anaheim area. I slept in so I cannot speak to breakfast but the rooms were clean quiet I got the rest that I needed but I checked out the speedy and I was on my way. no problemsMoreShow less</t>
+  </si>
+  <si>
+    <t>I recently had a fire at my house and I have been forced to stay in hotels for a couple of weeks due to the rehabilitation efforts.  I was told by the construction workers at my house if you ready on a certain date it was not I had to make the reservations here last minute through website and after booking my stay there were no problems I showed up the night clerk book me in in less than 10 minutes take into account the fact that I didn't have any former state ID only had a passportI requested a king size bed and got it is one of the most comfortable hotel beds I've slept in. The room was spotless plenty of towels refrigerator coffee maker iron and ironing board and there were no people hanging around in the parking lot past dark like other hotels in Anaheim area. I slept in so I cannot speak to breakfast but the rooms were clean quiet I got the rest that I needed but I checked out the speedy and I was on my way. no problemsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r249472701-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>249472701</t>
+  </si>
+  <si>
+    <t>01/15/2015</t>
+  </si>
+  <si>
+    <t>No hot tub or free parking.         shuttle?</t>
+  </si>
+  <si>
+    <t>excellent facility no complaints at all with the property.  The information from trip advisor  site was not as good.  The listing says free parking that is incorrect they charge 5.50 per day.  If you go directly to quality inn site they say that it is not free.  The picture from this site shows a hot tub.  The pic is NOT from that property, again a failure from the trip advisor website, and not quality Inn.  The shuttle is the bus that only runs once an hour and closes an hour before Disneyland closes. Do not waste your 5.00  each for the shuttle.  Trip advisor site let me down big time.MoreShow less</t>
+  </si>
+  <si>
+    <t>Quality Inn and... M, Guest Relations Manager at Quality Inn &amp; Suites Anaheim Maingate, responded to this reviewResponded January 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 20, 2015</t>
+  </si>
+  <si>
+    <t>excellent facility no complaints at all with the property.  The information from trip advisor  site was not as good.  The listing says free parking that is incorrect they charge 5.50 per day.  If you go directly to quality inn site they say that it is not free.  The picture from this site shows a hot tub.  The pic is NOT from that property, again a failure from the trip advisor website, and not quality Inn.  The shuttle is the bus that only runs once an hour and closes an hour before Disneyland closes. Do not waste your 5.00  each for the shuttle.  Trip advisor site let me down big time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r247702471-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>247702471</t>
+  </si>
+  <si>
+    <t>01/05/2015</t>
+  </si>
+  <si>
+    <t>AWESOME STAY</t>
+  </si>
+  <si>
+    <t>This hotel was very nice. Clean, and staff was awesome. I left a sweater behind by mistake I called hotel and long story short they had it I talked with Ruby and she was so very very nice to see that I got my sweater back. I will for sure return to this hotel and would highly recommend it to anyone. About 15 min walk to Disneyland maingate. Thanks again so much RubyMoreShow less</t>
+  </si>
+  <si>
+    <t>Quality Inn and... M, Guest Relations Manager at Quality Inn &amp; Suites Anaheim Maingate, responded to this reviewResponded January 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 13, 2015</t>
+  </si>
+  <si>
+    <t>This hotel was very nice. Clean, and staff was awesome. I left a sweater behind by mistake I called hotel and long story short they had it I talked with Ruby and she was so very very nice to see that I got my sweater back. I will for sure return to this hotel and would highly recommend it to anyone. About 15 min walk to Disneyland maingate. Thanks again so much RubyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r246118067-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>246118067</t>
+  </si>
+  <si>
+    <t>12/27/2014</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>I been staying at this hotel since Nov 2014  this is my favorite Quality Inn now  I really like the rooms they have plenty of space  I always get the room with the King Bed and whirlpool inside the bathroom I love it because I get to take a bath and relax  the rooms are very clean and  bed is comfortable also the rooms have more then 1 window they have 1 or 2 smaller ones with shutters is nice because it feels to me like an apartment  The staff there is very nice is you need anything they will make sure to take care of you  Ruby is there in the morning to help you she is very helpful and alfred is there in the evening to help you they both will make sure you have a great stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Quality Inn and... M, Guest Relations Manager at Quality Inn &amp; Suites Anaheim Maingate, responded to this reviewResponded January 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 6, 2015</t>
+  </si>
+  <si>
+    <t>I been staying at this hotel since Nov 2014  this is my favorite Quality Inn now  I really like the rooms they have plenty of space  I always get the room with the King Bed and whirlpool inside the bathroom I love it because I get to take a bath and relax  the rooms are very clean and  bed is comfortable also the rooms have more then 1 window they have 1 or 2 smaller ones with shutters is nice because it feels to me like an apartment  The staff there is very nice is you need anything they will make sure to take care of you  Ruby is there in the morning to help you she is very helpful and alfred is there in the evening to help you they both will make sure you have a great stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r232721471-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>232721471</t>
+  </si>
+  <si>
+    <t>10/05/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great place, but my feelings are mixed... </t>
+  </si>
+  <si>
+    <t>I stayed here for almost a week on business.  The staff was fantastic, from the front desk to the maids, they were nice and pleasant and helpful when needed.  The grounds are kept beautifully and the place is just overall well maintained.  No problems there. 
+The suite is stayed in was HUGE.  No problems there as far as size... Decor, I'll get to in a minute.
+One huge plus is on the weekend evenings I had a great view of the fireworks at Disney... I mean, truly a great little pleasure! 
+My only problems with this place are simply based upon personal preference.  For example, Had I known this was a hotel with rooms facing the outside (rather than hallways on the inside), I probably wouldn't have stayed here in the first place.  I just prefer my windows to be facing away from where people walking by can look in. 
+I also felt the rooms were not to the standard I like in style and decor.  I know that's kind of lame, but like I said, personal preference.  This location looks like a slightly more upscale Super 8 motel or something... I prefer a more contemporary environment as most comfort suites have now.  
+Anyhow, for what it was it truly was a great place and I would recommend it to people without a doubt.  But for my personal taste, I'll probably stay elsewhere next time... I just don't like to...I stayed here for almost a week on business.  The staff was fantastic, from the front desk to the maids, they were nice and pleasant and helpful when needed.  The grounds are kept beautifully and the place is just overall well maintained.  No problems there. The suite is stayed in was HUGE.  No problems there as far as size... Decor, I'll get to in a minute.One huge plus is on the weekend evenings I had a great view of the fireworks at Disney... I mean, truly a great little pleasure! My only problems with this place are simply based upon personal preference.  For example, Had I known this was a hotel with rooms facing the outside (rather than hallways on the inside), I probably wouldn't have stayed here in the first place.  I just prefer my windows to be facing away from where people walking by can look in. I also felt the rooms were not to the standard I like in style and decor.  I know that's kind of lame, but like I said, personal preference.  This location looks like a slightly more upscale Super 8 motel or something... I prefer a more contemporary environment as most comfort suites have now.  Anyhow, for what it was it truly was a great place and I would recommend it to people without a doubt.  But for my personal taste, I'll probably stay elsewhere next time... I just don't like to access my room from an open walkway outside.  MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Quality Inn and... M, Guest Relations Manager at Quality Inn &amp; Suites Anaheim Maingate, responded to this reviewResponded October 7, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 7, 2014</t>
+  </si>
+  <si>
+    <t>I stayed here for almost a week on business.  The staff was fantastic, from the front desk to the maids, they were nice and pleasant and helpful when needed.  The grounds are kept beautifully and the place is just overall well maintained.  No problems there. 
+The suite is stayed in was HUGE.  No problems there as far as size... Decor, I'll get to in a minute.
+One huge plus is on the weekend evenings I had a great view of the fireworks at Disney... I mean, truly a great little pleasure! 
+My only problems with this place are simply based upon personal preference.  For example, Had I known this was a hotel with rooms facing the outside (rather than hallways on the inside), I probably wouldn't have stayed here in the first place.  I just prefer my windows to be facing away from where people walking by can look in. 
+I also felt the rooms were not to the standard I like in style and decor.  I know that's kind of lame, but like I said, personal preference.  This location looks like a slightly more upscale Super 8 motel or something... I prefer a more contemporary environment as most comfort suites have now.  
+Anyhow, for what it was it truly was a great place and I would recommend it to people without a doubt.  But for my personal taste, I'll probably stay elsewhere next time... I just don't like to...I stayed here for almost a week on business.  The staff was fantastic, from the front desk to the maids, they were nice and pleasant and helpful when needed.  The grounds are kept beautifully and the place is just overall well maintained.  No problems there. The suite is stayed in was HUGE.  No problems there as far as size... Decor, I'll get to in a minute.One huge plus is on the weekend evenings I had a great view of the fireworks at Disney... I mean, truly a great little pleasure! My only problems with this place are simply based upon personal preference.  For example, Had I known this was a hotel with rooms facing the outside (rather than hallways on the inside), I probably wouldn't have stayed here in the first place.  I just prefer my windows to be facing away from where people walking by can look in. I also felt the rooms were not to the standard I like in style and decor.  I know that's kind of lame, but like I said, personal preference.  This location looks like a slightly more upscale Super 8 motel or something... I prefer a more contemporary environment as most comfort suites have now.  Anyhow, for what it was it truly was a great place and I would recommend it to people without a doubt.  But for my personal taste, I'll probably stay elsewhere next time... I just don't like to access my room from an open walkway outside.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r232457119-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>232457119</t>
+  </si>
+  <si>
+    <t>10/03/2014</t>
+  </si>
+  <si>
+    <t>Exceptional Hotel Staff</t>
+  </si>
+  <si>
+    <t>One of those rare occasion when one have the good fortune of meeting an employee  who is willing to provide excellent service. We met one - Arcee at the front desk.We arrived before check in time, he made extra effort to get us the room type that we requested.Next morning, we found our car being boxed in on both sides and could not even get into the car from either side. Arcee went out twice to find one of the car owner to move their vehicle so that we could back out.The hotel itself is OK, older, but spacious and clean.Not a good stay (not the fault of the hotel) - aside from the parking incidence, at 2am, kids were screaming and yelling for an hour, then some guest(s) constantly used his/her annoying beeping remote car control. Wish people have some consideration and class.But Arcee saved our day.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>One of those rare occasion when one have the good fortune of meeting an employee  who is willing to provide excellent service. We met one - Arcee at the front desk.We arrived before check in time, he made extra effort to get us the room type that we requested.Next morning, we found our car being boxed in on both sides and could not even get into the car from either side. Arcee went out twice to find one of the car owner to move their vehicle so that we could back out.The hotel itself is OK, older, but spacious and clean.Not a good stay (not the fault of the hotel) - aside from the parking incidence, at 2am, kids were screaming and yelling for an hour, then some guest(s) constantly used his/her annoying beeping remote car control. Wish people have some consideration and class.But Arcee saved our day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r232279386-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>232279386</t>
+  </si>
+  <si>
+    <t>10/02/2014</t>
+  </si>
+  <si>
+    <t>Very pleasant</t>
+  </si>
+  <si>
+    <t>we only stayed the 1 night, the reception staff seemed genuinely happy to see us. The room was large, plenty of pillows and towels. The free continental breakfast was well presented. Lots of parking and my favourite a guest laundry.MoreShow less</t>
+  </si>
+  <si>
+    <t>we only stayed the 1 night, the reception staff seemed genuinely happy to see us. The room was large, plenty of pillows and towels. The free continental breakfast was well presented. Lots of parking and my favourite a guest laundry.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r222508178-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>222508178</t>
+  </si>
+  <si>
+    <t>08/17/2014</t>
+  </si>
+  <si>
+    <t>Great Staff!</t>
+  </si>
+  <si>
+    <t>This newly upgraded and renovated hotel is a great deal. Their rooms are spacious, clean, and the beds are so comfortable. The location is quiet and perfect distance from Disneyland because it's just 20 minutes walk. Although on our third day we decided to use the ART shuttle. Their hot breakfast was the added plus. All the staff were amazing but we want to emphasize to the outstanding helpfulness of Ruby. She is everybody's favorite. She was always with a big smile every time we see her. She is my dream employee to have in my own business. MoreShow less</t>
+  </si>
+  <si>
+    <t>Quality Inn and... M, Guest Relations Manager at Quality Inn &amp; Suites Anaheim Maingate, responded to this reviewResponded August 19, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 19, 2014</t>
+  </si>
+  <si>
+    <t>This newly upgraded and renovated hotel is a great deal. Their rooms are spacious, clean, and the beds are so comfortable. The location is quiet and perfect distance from Disneyland because it's just 20 minutes walk. Although on our third day we decided to use the ART shuttle. Their hot breakfast was the added plus. All the staff were amazing but we want to emphasize to the outstanding helpfulness of Ruby. She is everybody's favorite. She was always with a big smile every time we see her. She is my dream employee to have in my own business. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r216935472-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>216935472</t>
+  </si>
+  <si>
+    <t>07/22/2014</t>
+  </si>
+  <si>
+    <t>Love the newly renovated hotel!!</t>
+  </si>
+  <si>
+    <t>Impressed with the renovations!! The beds are always comfortable and finally updated the room and the breakfast! ! Alfred, who had checked us in,  was the friendliest employee I have encountered at any hotel for a long time.  His hospitality really showed throughout our check in process and i loved that he called our room to make sure everything was perfect. I would definitely bring my family here again!!! Absolutely enjoyed my stay! !MoreShow less</t>
+  </si>
+  <si>
+    <t>Quality Inn and... M, Guest Relations Manager at Quality Inn &amp; Suites Anaheim Maingate, responded to this reviewResponded July 24, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 24, 2014</t>
+  </si>
+  <si>
+    <t>Impressed with the renovations!! The beds are always comfortable and finally updated the room and the breakfast! ! Alfred, who had checked us in,  was the friendliest employee I have encountered at any hotel for a long time.  His hospitality really showed throughout our check in process and i loved that he called our room to make sure everything was perfect. I would definitely bring my family here again!!! Absolutely enjoyed my stay! !More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r213141184-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
+  </si>
+  <si>
+    <t>213141184</t>
+  </si>
+  <si>
+    <t>07/01/2014</t>
+  </si>
+  <si>
+    <t>Great Value and Newly Updated</t>
+  </si>
+  <si>
+    <t>My husband and two daughters were very pleased with our stay.  The rooms have been recently updated so were fresh-looking and clean.   Due to a late booking, we had a king bed with pull-out couch.  The bed was very comfortable but the pull-out couch - not so much.  That said, my young daughters had no problem sleeping on the pull-out.  We enjoyed a very nice breakfast (waffles, cereal, pastries, english muffins, toast, oatmeal, yogurt, hard-boiled eggs (these were okay), juice, and coffee) both mornings of our stay.  While not walking distance to Disney or the Convention Center (our destination), it is only about 1-1/2 miles to both (they are next to each other) and also very convenient to I-5.   The pool is a little small but does the job.  Parking spaces are a little slim (for an SUV) but adequate.   While we especially liked Ruby at the front desk, all of the employees we came in contact with were very helpful and accommodating.   We would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Quality Inn and... M, Manager at Quality Inn &amp; Suites Anaheim Maingate, responded to this reviewResponded July 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 3, 2014</t>
+  </si>
+  <si>
+    <t>My husband and two daughters were very pleased with our stay.  The rooms have been recently updated so were fresh-looking and clean.   Due to a late booking, we had a king bed with pull-out couch.  The bed was very comfortable but the pull-out couch - not so much.  That said, my young daughters had no problem sleeping on the pull-out.  We enjoyed a very nice breakfast (waffles, cereal, pastries, english muffins, toast, oatmeal, yogurt, hard-boiled eggs (these were okay), juice, and coffee) both mornings of our stay.  While not walking distance to Disney or the Convention Center (our destination), it is only about 1-1/2 miles to both (they are next to each other) and also very convenient to I-5.   The pool is a little small but does the job.  Parking spaces are a little slim (for an SUV) but adequate.   While we especially liked Ruby at the front desk, all of the employees we came in contact with were very helpful and accommodating.   We would definitely stay here again.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2127,4007 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>22522</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>22522</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>22522</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>22522</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>79</v>
+      </c>
+      <c r="X5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>22522</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>87</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>88</v>
+      </c>
+      <c r="X6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>22522</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>96</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>97</v>
+      </c>
+      <c r="X7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>22522</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8" t="s">
+        <v>103</v>
+      </c>
+      <c r="L8" t="s">
+        <v>104</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>105</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>106</v>
+      </c>
+      <c r="X8" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>22522</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K9" t="s">
+        <v>112</v>
+      </c>
+      <c r="L9" t="s">
+        <v>113</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>114</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>106</v>
+      </c>
+      <c r="X9" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>22522</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>117</v>
+      </c>
+      <c r="J10" t="s">
+        <v>118</v>
+      </c>
+      <c r="K10" t="s">
+        <v>119</v>
+      </c>
+      <c r="L10" t="s">
+        <v>120</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>105</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>121</v>
+      </c>
+      <c r="X10" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>22522</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>125</v>
+      </c>
+      <c r="J11" t="s">
+        <v>126</v>
+      </c>
+      <c r="K11" t="s">
+        <v>127</v>
+      </c>
+      <c r="L11" t="s">
+        <v>128</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>129</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>130</v>
+      </c>
+      <c r="X11" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>22522</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>133</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>134</v>
+      </c>
+      <c r="J12" t="s">
+        <v>135</v>
+      </c>
+      <c r="K12" t="s">
+        <v>136</v>
+      </c>
+      <c r="L12" t="s">
+        <v>137</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>138</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>139</v>
+      </c>
+      <c r="X12" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>22522</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>143</v>
+      </c>
+      <c r="J13" t="s">
+        <v>144</v>
+      </c>
+      <c r="K13" t="s">
+        <v>145</v>
+      </c>
+      <c r="L13" t="s">
+        <v>146</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>147</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>139</v>
+      </c>
+      <c r="X13" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>22522</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>149</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>150</v>
+      </c>
+      <c r="J14" t="s">
+        <v>151</v>
+      </c>
+      <c r="K14" t="s">
+        <v>152</v>
+      </c>
+      <c r="L14" t="s">
+        <v>153</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>154</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>139</v>
+      </c>
+      <c r="X14" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>22522</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>156</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>157</v>
+      </c>
+      <c r="J15" t="s">
+        <v>158</v>
+      </c>
+      <c r="K15" t="s">
+        <v>159</v>
+      </c>
+      <c r="L15" t="s">
+        <v>160</v>
+      </c>
+      <c r="M15" t="n">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>154</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>139</v>
+      </c>
+      <c r="X15" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>22522</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>162</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>163</v>
+      </c>
+      <c r="J16" t="s">
+        <v>164</v>
+      </c>
+      <c r="K16" t="s">
+        <v>165</v>
+      </c>
+      <c r="L16" t="s">
+        <v>166</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>154</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>167</v>
+      </c>
+      <c r="X16" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>22522</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>170</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>171</v>
+      </c>
+      <c r="J17" t="s">
+        <v>172</v>
+      </c>
+      <c r="K17" t="s">
+        <v>173</v>
+      </c>
+      <c r="L17" t="s">
+        <v>174</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>175</v>
+      </c>
+      <c r="X17" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>22522</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>178</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>179</v>
+      </c>
+      <c r="J18" t="s">
+        <v>180</v>
+      </c>
+      <c r="K18" t="s">
+        <v>181</v>
+      </c>
+      <c r="L18" t="s">
+        <v>182</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>154</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>183</v>
+      </c>
+      <c r="X18" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>22522</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>186</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>187</v>
+      </c>
+      <c r="J19" t="s">
+        <v>188</v>
+      </c>
+      <c r="K19" t="s">
+        <v>189</v>
+      </c>
+      <c r="L19" t="s">
+        <v>190</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>191</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>192</v>
+      </c>
+      <c r="X19" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>22522</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>195</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>196</v>
+      </c>
+      <c r="J20" t="s">
+        <v>197</v>
+      </c>
+      <c r="K20" t="s">
+        <v>198</v>
+      </c>
+      <c r="L20" t="s">
+        <v>199</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>191</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>200</v>
+      </c>
+      <c r="X20" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>22522</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>203</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>204</v>
+      </c>
+      <c r="J21" t="s">
+        <v>205</v>
+      </c>
+      <c r="K21" t="s">
+        <v>206</v>
+      </c>
+      <c r="L21" t="s">
+        <v>207</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>191</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>4</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>208</v>
+      </c>
+      <c r="X21" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>22522</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>211</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>212</v>
+      </c>
+      <c r="J22" t="s">
+        <v>213</v>
+      </c>
+      <c r="K22" t="s">
+        <v>214</v>
+      </c>
+      <c r="L22" t="s">
+        <v>215</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>216</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>208</v>
+      </c>
+      <c r="X22" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22522</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>218</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>219</v>
+      </c>
+      <c r="J23" t="s">
+        <v>220</v>
+      </c>
+      <c r="K23" t="s">
+        <v>221</v>
+      </c>
+      <c r="L23" t="s">
+        <v>222</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>223</v>
+      </c>
+      <c r="O23" t="s">
+        <v>224</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>208</v>
+      </c>
+      <c r="X23" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22522</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>226</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>227</v>
+      </c>
+      <c r="J24" t="s">
+        <v>228</v>
+      </c>
+      <c r="K24" t="s">
+        <v>229</v>
+      </c>
+      <c r="L24" t="s">
+        <v>230</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>231</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>208</v>
+      </c>
+      <c r="X24" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>22522</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>233</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>234</v>
+      </c>
+      <c r="J25" t="s">
+        <v>235</v>
+      </c>
+      <c r="K25" t="s">
+        <v>236</v>
+      </c>
+      <c r="L25" t="s">
+        <v>237</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>238</v>
+      </c>
+      <c r="O25" t="s">
+        <v>239</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>22522</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>240</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>241</v>
+      </c>
+      <c r="J26" t="s">
+        <v>242</v>
+      </c>
+      <c r="K26" t="s">
+        <v>243</v>
+      </c>
+      <c r="L26" t="s">
+        <v>244</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>245</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>22522</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>247</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>248</v>
+      </c>
+      <c r="J27" t="s">
+        <v>249</v>
+      </c>
+      <c r="K27" t="s">
+        <v>250</v>
+      </c>
+      <c r="L27" t="s">
+        <v>251</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>245</v>
+      </c>
+      <c r="O27" t="s">
+        <v>239</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>22522</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>252</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>253</v>
+      </c>
+      <c r="J28" t="s">
+        <v>254</v>
+      </c>
+      <c r="K28" t="s">
+        <v>255</v>
+      </c>
+      <c r="L28" t="s">
+        <v>256</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>257</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>22522</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>259</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>260</v>
+      </c>
+      <c r="J29" t="s">
+        <v>261</v>
+      </c>
+      <c r="K29" t="s">
+        <v>262</v>
+      </c>
+      <c r="L29" t="s">
+        <v>263</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>264</v>
+      </c>
+      <c r="O29" t="s">
+        <v>239</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>265</v>
+      </c>
+      <c r="X29" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>22522</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>268</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>269</v>
+      </c>
+      <c r="J30" t="s">
+        <v>270</v>
+      </c>
+      <c r="K30" t="s">
+        <v>271</v>
+      </c>
+      <c r="L30" t="s">
+        <v>272</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>264</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>265</v>
+      </c>
+      <c r="X30" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>22522</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>274</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>275</v>
+      </c>
+      <c r="J31" t="s">
+        <v>276</v>
+      </c>
+      <c r="K31" t="s">
+        <v>277</v>
+      </c>
+      <c r="L31" t="s">
+        <v>278</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>279</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>265</v>
+      </c>
+      <c r="X31" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>22522</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>281</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>282</v>
+      </c>
+      <c r="J32" t="s">
+        <v>283</v>
+      </c>
+      <c r="K32" t="s">
+        <v>284</v>
+      </c>
+      <c r="L32" t="s">
+        <v>285</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>286</v>
+      </c>
+      <c r="O32" t="s">
+        <v>287</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>288</v>
+      </c>
+      <c r="X32" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>22522</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>291</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>292</v>
+      </c>
+      <c r="J33" t="s">
+        <v>293</v>
+      </c>
+      <c r="K33" t="s">
+        <v>294</v>
+      </c>
+      <c r="L33" t="s">
+        <v>295</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>286</v>
+      </c>
+      <c r="O33" t="s">
+        <v>296</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>288</v>
+      </c>
+      <c r="X33" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>22522</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>298</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>299</v>
+      </c>
+      <c r="J34" t="s">
+        <v>300</v>
+      </c>
+      <c r="K34" t="s">
+        <v>301</v>
+      </c>
+      <c r="L34" t="s">
+        <v>302</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>286</v>
+      </c>
+      <c r="O34" t="s">
+        <v>239</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>288</v>
+      </c>
+      <c r="X34" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>22522</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>304</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>305</v>
+      </c>
+      <c r="J35" t="s">
+        <v>306</v>
+      </c>
+      <c r="K35" t="s">
+        <v>307</v>
+      </c>
+      <c r="L35" t="s">
+        <v>308</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>309</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>22522</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>311</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>312</v>
+      </c>
+      <c r="J36" t="s">
+        <v>313</v>
+      </c>
+      <c r="K36" t="s">
+        <v>314</v>
+      </c>
+      <c r="L36" t="s">
+        <v>315</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>316</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>22522</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>317</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>318</v>
+      </c>
+      <c r="J37" t="s">
+        <v>319</v>
+      </c>
+      <c r="K37" t="s">
+        <v>320</v>
+      </c>
+      <c r="L37" t="s">
+        <v>321</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>322</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>22522</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>323</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>324</v>
+      </c>
+      <c r="J38" t="s">
+        <v>325</v>
+      </c>
+      <c r="K38" t="s">
+        <v>326</v>
+      </c>
+      <c r="L38" t="s">
+        <v>327</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>309</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>22522</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>329</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>330</v>
+      </c>
+      <c r="J39" t="s">
+        <v>331</v>
+      </c>
+      <c r="K39" t="s">
+        <v>332</v>
+      </c>
+      <c r="L39" t="s">
+        <v>333</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>334</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>3</v>
+      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>3</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>22522</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>336</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>337</v>
+      </c>
+      <c r="J40" t="s">
+        <v>338</v>
+      </c>
+      <c r="K40" t="s">
+        <v>339</v>
+      </c>
+      <c r="L40" t="s">
+        <v>340</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>334</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>22522</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>342</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>343</v>
+      </c>
+      <c r="J41" t="s">
+        <v>344</v>
+      </c>
+      <c r="K41" t="s">
+        <v>345</v>
+      </c>
+      <c r="L41" t="s">
+        <v>346</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>334</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>347</v>
+      </c>
+      <c r="X41" t="s">
+        <v>348</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>22522</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>350</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>351</v>
+      </c>
+      <c r="J42" t="s">
+        <v>352</v>
+      </c>
+      <c r="K42" t="s">
+        <v>353</v>
+      </c>
+      <c r="L42" t="s">
+        <v>354</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>334</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>347</v>
+      </c>
+      <c r="X42" t="s">
+        <v>348</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>22522</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>356</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>357</v>
+      </c>
+      <c r="J43" t="s">
+        <v>358</v>
+      </c>
+      <c r="K43" t="s">
+        <v>359</v>
+      </c>
+      <c r="L43" t="s">
+        <v>360</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>334</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>347</v>
+      </c>
+      <c r="X43" t="s">
+        <v>348</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>22522</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>362</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>363</v>
+      </c>
+      <c r="J44" t="s">
+        <v>364</v>
+      </c>
+      <c r="K44" t="s">
+        <v>365</v>
+      </c>
+      <c r="L44" t="s">
+        <v>366</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>334</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>367</v>
+      </c>
+      <c r="X44" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>22522</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>370</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>371</v>
+      </c>
+      <c r="J45" t="s">
+        <v>372</v>
+      </c>
+      <c r="K45" t="s">
+        <v>373</v>
+      </c>
+      <c r="L45" t="s">
+        <v>374</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>334</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>367</v>
+      </c>
+      <c r="X45" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>22522</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>376</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>377</v>
+      </c>
+      <c r="J46" t="s">
+        <v>378</v>
+      </c>
+      <c r="K46" t="s">
+        <v>379</v>
+      </c>
+      <c r="L46" t="s">
+        <v>380</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>367</v>
+      </c>
+      <c r="X46" t="s">
+        <v>368</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>22522</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>382</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>383</v>
+      </c>
+      <c r="J47" t="s">
+        <v>384</v>
+      </c>
+      <c r="K47" t="s">
+        <v>385</v>
+      </c>
+      <c r="L47" t="s">
+        <v>386</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>257</v>
+      </c>
+      <c r="O47" t="s">
+        <v>224</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>387</v>
+      </c>
+      <c r="X47" t="s">
+        <v>388</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>22522</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>390</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>391</v>
+      </c>
+      <c r="J48" t="s">
+        <v>392</v>
+      </c>
+      <c r="K48" t="s">
+        <v>393</v>
+      </c>
+      <c r="L48" t="s">
+        <v>394</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>395</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>396</v>
+      </c>
+      <c r="X48" t="s">
+        <v>397</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>22522</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>399</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>400</v>
+      </c>
+      <c r="J49" t="s">
+        <v>401</v>
+      </c>
+      <c r="K49" t="s">
+        <v>402</v>
+      </c>
+      <c r="L49" t="s">
+        <v>403</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>395</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>396</v>
+      </c>
+      <c r="X49" t="s">
+        <v>397</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>22522</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>405</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>406</v>
+      </c>
+      <c r="J50" t="s">
+        <v>407</v>
+      </c>
+      <c r="K50" t="s">
+        <v>408</v>
+      </c>
+      <c r="L50" t="s">
+        <v>409</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>410</v>
+      </c>
+      <c r="O50" t="s">
+        <v>287</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>411</v>
+      </c>
+      <c r="X50" t="s">
+        <v>412</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>22522</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>414</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>415</v>
+      </c>
+      <c r="J51" t="s">
+        <v>416</v>
+      </c>
+      <c r="K51" t="s">
+        <v>417</v>
+      </c>
+      <c r="L51" t="s">
+        <v>418</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2</v>
+      </c>
+      <c r="N51" t="s">
+        <v>410</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="n">
+        <v>2</v>
+      </c>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>2</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>419</v>
+      </c>
+      <c r="X51" t="s">
+        <v>420</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>22522</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>422</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>423</v>
+      </c>
+      <c r="J52" t="s">
+        <v>424</v>
+      </c>
+      <c r="K52" t="s">
+        <v>425</v>
+      </c>
+      <c r="L52" t="s">
+        <v>426</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s"/>
+      <c r="O52" t="s"/>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>411</v>
+      </c>
+      <c r="X52" t="s">
+        <v>412</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>22522</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>428</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>429</v>
+      </c>
+      <c r="J53" t="s">
+        <v>430</v>
+      </c>
+      <c r="K53" t="s">
+        <v>431</v>
+      </c>
+      <c r="L53" t="s">
+        <v>432</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s"/>
+      <c r="O53" t="s"/>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>433</v>
+      </c>
+      <c r="X53" t="s">
+        <v>434</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>22522</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>436</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>437</v>
+      </c>
+      <c r="J54" t="s">
+        <v>438</v>
+      </c>
+      <c r="K54" t="s">
+        <v>439</v>
+      </c>
+      <c r="L54" t="s">
+        <v>440</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>441</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="s"/>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>442</v>
+      </c>
+      <c r="X54" t="s">
+        <v>443</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>22522</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>445</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>446</v>
+      </c>
+      <c r="J55" t="s">
+        <v>447</v>
+      </c>
+      <c r="K55" t="s">
+        <v>448</v>
+      </c>
+      <c r="L55" t="s">
+        <v>449</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s"/>
+      <c r="O55" t="s"/>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>442</v>
+      </c>
+      <c r="X55" t="s">
+        <v>443</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>22522</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>451</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>452</v>
+      </c>
+      <c r="J56" t="s">
+        <v>453</v>
+      </c>
+      <c r="K56" t="s">
+        <v>454</v>
+      </c>
+      <c r="L56" t="s">
+        <v>455</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>322</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>456</v>
+      </c>
+      <c r="X56" t="s">
+        <v>457</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>22522</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>459</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>460</v>
+      </c>
+      <c r="J57" t="s">
+        <v>461</v>
+      </c>
+      <c r="K57" t="s">
+        <v>462</v>
+      </c>
+      <c r="L57" t="s">
+        <v>463</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s"/>
+      <c r="O57" t="s"/>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>464</v>
+      </c>
+      <c r="X57" t="s">
+        <v>465</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>22522</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>467</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>468</v>
+      </c>
+      <c r="J58" t="s">
+        <v>469</v>
+      </c>
+      <c r="K58" t="s">
+        <v>470</v>
+      </c>
+      <c r="L58" t="s">
+        <v>471</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>472</v>
+      </c>
+      <c r="O58" t="s">
+        <v>239</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>473</v>
+      </c>
+      <c r="X58" t="s">
+        <v>474</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>22522</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>476</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>477</v>
+      </c>
+      <c r="J59" t="s">
+        <v>478</v>
+      </c>
+      <c r="K59" t="s">
+        <v>479</v>
+      </c>
+      <c r="L59" t="s">
+        <v>480</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>481</v>
+      </c>
+      <c r="O59" t="s">
+        <v>224</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="s"/>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>482</v>
+      </c>
+      <c r="X59" t="s">
+        <v>483</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>22522</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>485</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>486</v>
+      </c>
+      <c r="J60" t="s">
+        <v>487</v>
+      </c>
+      <c r="K60" t="s">
+        <v>488</v>
+      </c>
+      <c r="L60" t="s">
+        <v>489</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3</v>
+      </c>
+      <c r="N60" t="s">
+        <v>490</v>
+      </c>
+      <c r="O60" t="s">
+        <v>239</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>482</v>
+      </c>
+      <c r="X60" t="s">
+        <v>483</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>22522</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>492</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>493</v>
+      </c>
+      <c r="J61" t="s">
+        <v>494</v>
+      </c>
+      <c r="K61" t="s">
+        <v>495</v>
+      </c>
+      <c r="L61" t="s">
+        <v>496</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>481</v>
+      </c>
+      <c r="O61" t="s">
+        <v>239</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="s"/>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>482</v>
+      </c>
+      <c r="X61" t="s">
+        <v>483</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>22522</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>498</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>499</v>
+      </c>
+      <c r="J62" t="s">
+        <v>500</v>
+      </c>
+      <c r="K62" t="s">
+        <v>501</v>
+      </c>
+      <c r="L62" t="s">
+        <v>502</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s"/>
+      <c r="O62" t="s"/>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>503</v>
+      </c>
+      <c r="X62" t="s">
+        <v>504</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>22522</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>506</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>507</v>
+      </c>
+      <c r="J63" t="s">
+        <v>508</v>
+      </c>
+      <c r="K63" t="s">
+        <v>509</v>
+      </c>
+      <c r="L63" t="s">
+        <v>510</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>511</v>
+      </c>
+      <c r="X63" t="s">
+        <v>512</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>22522</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>514</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>515</v>
+      </c>
+      <c r="J64" t="s">
+        <v>516</v>
+      </c>
+      <c r="K64" t="s">
+        <v>517</v>
+      </c>
+      <c r="L64" t="s">
+        <v>518</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>519</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>3</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>520</v>
+      </c>
+      <c r="X64" t="s">
+        <v>521</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>522</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_586.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_586.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="586">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Moparonthemove</t>
+  </si>
+  <si>
     <t>07/08/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>You could walk to the park. After 20 minutes you would get there. Or take the ART bus and get there in five minutes. Two dollars adult one dollar child  or get a day pass. This way you can come and go but we found we just stayed at the park all day And evening. On the way back you catch the number 10 and return to the hotel. It is a longer ride. it takes you around the neighborhood. It is worth it. at the end of the day After walking around the park all day it’s nice to be able to sit down and just enjoy the ride and hear the people talking about their fun day.More</t>
   </si>
   <si>
+    <t>Kandida S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r563053239-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
   </si>
   <si>
@@ -213,6 +219,9 @@
     <t>We finally planned and reserved our first ever family Disney vacation and we decided to stay here. I thought I was cost effective by prepaying for the hotel room, gaining a discount. Big Mistake! Our kids are young adults and one of the girls is on a college softball scholarship. Her school added a game for the same time we were planned to be at Disneyland, so our trip is now cancelled. When I called the hotel to cancel, they refused to refund me my reservation. I'm out almost 800.00 for a family vacation I won't even take.More</t>
   </si>
   <si>
+    <t>Lisa J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r562033162-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
   </si>
   <si>
@@ -235,6 +244,9 @@
   </si>
   <si>
     <t>Super Happy with the Hotel.  Very Friendly front desk staff.  Nice Breakfast.  Safe location.  Clean rooms, Nice Lobby and breakfast area.  Comfy beds.   Just 2 buildings down for bus stop to Disney.  We will for sure stay here again on our next trip to Anaheim/Disney!!More</t>
+  </si>
+  <si>
+    <t>Becky C</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r546484684-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
@@ -270,6 +282,9 @@
 * BAD SMELL: There was a terrible odor in the room, so bad that we had to have them bring us some air freshener before we could even unpack. We stayed for 4 nights, and each day when we returned from being out and about, the odor was still there. In the bathroom, the odor was of cigarette smoke, though none of us...Before going into detail, let me first say that this hotel was recommended by a family member. It did not come even close to living up to that recommendation! Second, the sign says "Newly Renovated." At no stretch of the imagination has this hotel been renovated! If what we experienced is AFTER being renovated, I would hate to see the "before" condition! Now the details...1. The reservation/check-in: Our reservation (made on-line) was for an accessible room. On check-in we were told that is not what we reserved. We told them we needed an accessible shower (as the individual was in a walker and could not step over a tub). We were told there was nothing available. I attempted to show him the printed receipt, showing the request for an accessible room; he would not look at it, saying there was nothing. Also, on-line it said the hotel was across from the Disneyland entrance. This is not the case. It is actually 0.8 miles. Not a bad drive, easy to get there...just misleading information.   2. The room: * BAD SMELL: There was a terrible odor in the room, so bad that we had to have them bring us some air freshener before we could even unpack. We stayed for 4 nights, and each day when we returned from being out and about, the odor was still there. In the bathroom, the odor was of cigarette smoke, though none of us smoke and it was supposed to be a non-smoking room. The rest of the room it smelled like a mild skunk odor. * THE BED/COUCH: The beds were very hard! The handicapped individual with us had a very difficult time sleeping. Additionally, the bedding was dirty. One bed had small black bits of something in the sheets. The other bed had leaves...yes, leaves (as if someone had put dirty shoes on the bed). The couch was very dirty and stained, so much so that we wouldn't sit on it.* THE BATHROOM: BEWARE!!! The shower floor is VERY slippery and there was no hand rail for the handicapped individual! There was a floor mat provided, but it was dirty and felt slick, so we did not use it. Also, there is no soap rack (no shower shelving at all, in fact), so the bar of soap sits on the edge of the tub. No matter how much you try and completely close the showed curtain, it does not quite reach end-to-end, so every time we used the shower, we had to clean up water off the floor. The toilet does not flush well, so you have to flush frequently or else go down to the desk for a plunger.   *GENERAL: The room was "okay." TV, fridge, microwave...all were provided and seemed to work. (We did not use the fridge or microwave, so can not verify.) No ice maker or vending on the floor, so you have to go down a floor every time you want ice.    Elevator was "interesting"...door would open before the elevator stopped on the floor you were going to. I guess that would explain the squeaking/grinding noise it made! Very frustrating when you are trying to go to bed early, your room is right next to the elevator, and other guests are going up and down until after midnight. Every time someone used the elevator, we were woken up. * PARKING: We were parked in handicapped parking and woke up to someone's van parked behind us, blocking us in. When we asked at the desk, the gentleman told us it was his and that he parks there whenever there is no parking available close to the office. Throughout our stay we noticed other vehicles parked in areas not marked as parking spaces, so apparently there is not adequate parking available. * BREAKFAST: Yes, there is a breakfast. It is "okay"...serves its purpose. It is the same every day, no variation: waffles, sausage gravy with biscuits, scrambled egg patties, yogurt, 3 cereal choices (cheerios, corn flakes, and one other unrecognizable), toast, and mini pastries. The breakfast area is kept clean and the one person we encountered working there was very friendly. * STAFF: This depends on who you encounter. The gentleman that checked us in was a bit rude and not at all concerned with there being an error with the reservation. He did bring up the air freshener for us when we requested it. The gentleman who checked us out was very nice and friendly...although he never once asked about our stay. Overall, we do not recommend this hotel. It was quite sub-par. We will not be staying here ever again.More</t>
   </si>
   <si>
+    <t>Erlinda M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r533530611-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
   </si>
   <si>
@@ -295,6 +310,9 @@
   </si>
   <si>
     <t>Thru booking .com I was able to obtain a great price for this place.  It very close to Disneyland, family orientated, good breakfast selection, parking was not so great, rooms were very clean.  Rooms came with microwave and mini fridge.  Pool was very clean and open.  Staff was very efficient, hospitable, professional and knowledgeable.   I truly enjoyed my stay here and felt it was well worth the money.More</t>
+  </si>
+  <si>
+    <t>559MoM</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r522467812-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
@@ -334,6 +352,9 @@
 The breakfast was pretty awesome and very filling! Biscuits with gravy, fruit, cereal, hot waffles, danishes, juices, sausages...It's been quite a long time since I've stayed at a Quality Inn because for a while I found the price was not comparable to the quality stay I would expect. I'm not sure what happened but there were great changes made and I will start staying here again! Check in was fast and extremely friendly. Price was very close to what I payed for a Hilton brand a weekend previously but no where near as great a stay. Room 216 was very comfortable. The beds are absolutely perfect. They're also very clean and super cozy. Pillows were great too. The towels were plentiful and fresh. Shampoo, conditioner and soaps were filled. No need for slippers or flip flops because the carpet was very clean. There is a pool that is small but very clean. Very little noise could be heard from neighbors. Parking is VERY tight but felt safe to walk around at night. There is an ART or Anaheim Resort Transit that'll get you to the parks less than a two minute walk away. I'd say to skip walking to Disneyland because it's almost a 10minute drive and ART takes you closest to the gate. There is a clean elevator to 2nd and 3rd floors that didn't smell funny or feel rickety. The microwave was clean and fridge was cold. The breakfast was pretty awesome and very filling! Biscuits with gravy, fruit, cereal, hot waffles, danishes, juices, sausages and much more were always fresh. The biscuits were never hard or dry and tasted fresh baked. I'm going back just for the breakfast!The customer service was perfect and again for the price can't be beat. More</t>
   </si>
   <si>
+    <t>Rahul N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r476228141-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
   </si>
   <si>
@@ -361,6 +382,9 @@
     <t>I was completely satisfied with the 3 night stay here for our Disneyland trip. The hotel is conveniently located 1.2 mi to the park. It is walkable for some but I preferred to take Uber with small kids. There is also ART shuttle stop around 500ft of the hotel.The hotel was clean with large enough rooms with microwave and refrigerator which is a must for us. The beds were comfortable for a good night sleep after tiring days at the park. The staff is very cordial and friendly. The breakfast is just like any other place with waffle, scrambled eggs, assorted muffins, pastries among other things. The place offers free parking though the lot is small. I personally didn't had any issue with the parking.We could see the spectacular Disney fireworks right from our room on third floor. I definitely recommend this no frill place for just dropping for a good night sleep after park day.More</t>
   </si>
   <si>
+    <t>Nemothelonely</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r475403005-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
   </si>
   <si>
@@ -382,6 +406,9 @@
     <t>A bit of a walk from Disneyland, but not a particular effort.   Any further may be a bit far on foot.  Anyway, there is an advertised shuttle bus.  It really is a nice hotel, well priced and with friendly and helpful staff.  My hotel of choice in Anaheim, especially since my previous one changed hands.More</t>
   </si>
   <si>
+    <t>LoveMinis</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r475128684-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
   </si>
   <si>
@@ -406,6 +433,9 @@
     <t>It would be a long long walk.Older hotel, park in front if door. Parking free but sparse if you come back late.Comfortable beds, large clean rooms, microwave/fridge, small outdoor pool, there is an elevator. At about 9:30pm every night you can view the Disneyland fireworks display. Best view upstairs. Breakfast area poorly set up, only one waffle maker, people waiting in line for that block everyone else from eggs, biscuits &amp; gravy. Not enough seating. They do strive to keep food refilled. If you book online, there is a surprise charge that doesn't show up until after you have booked room &amp; they have your credit card. They will tell you it is a resort fee that the city of Anaheim mandates them to collect.  Nevertheless, it was good enough value that we stayed here twice. Some rooms are nicer than others.More</t>
   </si>
   <si>
+    <t>jasnheid</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r463594332-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
   </si>
   <si>
@@ -433,6 +463,9 @@
     <t>Great experience this week!! We had such great service at the front desk with lots of random request including a sewing kit! The room had A 2 person jetted tub which was perfect After walking Disneyland! Only complaint was the low shower head location. Made me bend ackwardly to shampoo. The breakfast was great and always stocked. A little more variety would be awesome!! Thanks again for a great stay HeidiMore</t>
   </si>
   <si>
+    <t>blueeyedgirl2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r453878671-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
   </si>
   <si>
@@ -460,6 +493,9 @@
     <t>This hotel is not walking distance to Disneyland or close to the Maingate. Complimentary breakfast was bland, cold and there weren't many options. The breakfast area was very small and cramped. Beds were not comfortable and they sagged. Room was clean and but it looked out dated.  Staff was very friendly and helpful. More</t>
   </si>
   <si>
+    <t>Chelsea G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r451533164-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
   </si>
   <si>
@@ -481,6 +517,9 @@
     <t>My family stayed here for two nights while we were on a quick trip to Disneyland a few days before Christmas. Our room was really big, clean, comfortable. The hotel had a continental breakfast which was perfectly adequate. It's located just very a short walk away from a bus stop where you can catch the shuttle to Disneyland. You can buy tickets for the shuttle at the front desk. We were told that you can see the Disney fireworks from the hotel (unfortunately the fireworks were cancelled both nights due to weather. boo!) Staff was friendly, we had no problems whatsoever. I really have no complaints except I wish the WiFi was faster, but that's not really a deal breaker for us.More</t>
   </si>
   <si>
+    <t>ilikepudding</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r438857929-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
   </si>
   <si>
@@ -502,6 +541,9 @@
     <t>The pros to this hotel:1. Newly renovated rooms2. Attractive decor in the rooms3. Large rooms with sofa 4. Elevator in motel5. Pool6. Inexpensive7. Close to Disneyland8. Clean and well maintained9. Free breakfast10. Friendly staffCons:1. The breakfast room is very small, needs more tables and a larger roomI would stay againMore</t>
   </si>
   <si>
+    <t>Laura S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r436162713-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
   </si>
   <si>
@@ -520,6 +562,9 @@
     <t>We arrived a bit early @ 2 and while room wasn't ready , I was given a parking pass and a coupon for a local restaurant . The Hotel room itself was ok , clean, comfortable beds . Mini Fridge and Microwave were a great benefit to have. Only issue was parking, Very difficult after a long day at the parks. We left earlier than we wanted due to lack of parking and worried we would not get a spot . IF you are interested in watching , hearing and Feeling the Fireworks it is good for that , but keep in mind they are really , really loud, but not the motels fault and my Granddaughter loved it . Not sure I would consider this Motel within walking distance ,at least not after a full day at Disney, but it is pretty close. The Motel was on bus line and ART is near. Breakfast was as advertised and area while small, was clean and well stocked.There are no inside hallways . Did not use Wifi , used own 4G .More</t>
   </si>
   <si>
+    <t>Whovian4life</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r433065787-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
   </si>
   <si>
@@ -544,6 +589,9 @@
     <t>Although we just got here, I am very happy with the cleanliness and size of our room, and it was inexpensive. Two most imporant things were checked: the shower looks impeccably clean and the beds are way comfortable. Even though it is far walk from the park, there is a cheap shuttle to Disneyland from here as well that runs before Disneyland opens and 30 min after it closes. More</t>
   </si>
   <si>
+    <t>smbdr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r428509268-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
   </si>
   <si>
@@ -568,6 +616,9 @@
     <t>This hotel was clean and surprisingly quiet.  Staff was very helpful and friendly.Rooms nice and roomy with refrigerator and microwave.Breakfast was good but a bit more space for sitting would be a big help.Price a bit higher than normal for Choice.More</t>
   </si>
   <si>
+    <t>jv_san_diego</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r425189959-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
   </si>
   <si>
@@ -592,6 +643,9 @@
     <t>The room was very comfortable, larger than expected, with good-quality furnishings, though I would have liked a computer desk.  It had all of the amenities you'd expect and need - a 2-part bathroom, good-sized fridge, coffee maker, flat screen TV, lots of pillows.Oddly, my only complaint about the room is the shower:  I'm only 5'10" tall, but the showerhead barely cleared my chin!  Also, the temp fluctuated wildly, from cold to near-scalding and back again, during every use, at all times of the day.  Minor annoyances, overall, but worth mentioning, in case ownership reads these.Lastly, it's important to note that it's probably a mile to the Maingate - not walkable, if you have kids.  However, tickets for the ART are sold at the front desk, are reasonably priced, and the stop is less than a block away from the hotel.  BTW, I found out this weekend that if you show your ART ticket to a city bus driver that happens to be headed toward the park, they'll let you on the bus, and drop you at the Maingate bus stop on Harbor Blvd.I'd have no qualms whatsoever staying here again.More</t>
   </si>
   <si>
+    <t>Vanessa L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r398246542-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
   </si>
   <si>
@@ -619,6 +673,9 @@
     <t>Overall a decent hotel. I misread the distance from Disneyland so it was a little farther than what I would've hoped but oh well. We just parked our car in the Disney parking structure because we like to leave the park and relax for a few hours each day. Another option is to take the ART. The hotel provides a breakfast buffet that offers the same thing everyday: eggs, biscuits, gravy, waffles, toast, cereals, various Danish, yogurt, coffee &amp; juices, apparently- they also have fruit but you better get there early cuz the moms get up early and load up and take off lookin' like Chiquita banana. Great value overall. More</t>
   </si>
   <si>
+    <t>Susana N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r393765134-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
   </si>
   <si>
@@ -643,6 +700,9 @@
     <t>My family and I checked out today. We stayed for 3 nights. The room was a nice size and it was clean. We had 2 queen beds. We stayed at this hotel because of price and it was close to Disneyland park. (At the front desk they sell A.R.T. (Anahiem Resort Transit) tickets for the bus to Disneyland park. It's cheaper to buy from the hotel than on the bus. It gives you a day pass.) If your looking for the a decent room on a budget, this place is a good place. If your looking for chocolates on your pillow, and fluffy robes...... You better bring your own. I would stay again. The employees were friendly and the a/c was cold. More</t>
   </si>
   <si>
+    <t>Neil B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r389526500-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
   </si>
   <si>
@@ -667,6 +727,9 @@
     <t>We were pleased with the property, room, and breakfast. We had a reservation for two rooms. The rooms were extremely SPACIOUS and the King room had the Jacuzzi which worked just fine. My kids shared the other room with two queen beds. The property does appear to be dated even though they claim that it is newly renovated, but this was not a big deal. Over all the property location was great; we were visiting Knotts Berry farm, it was clean and spacious. The breakfast was fine too; no major complaints, except for at least two of the employees, the female in the AM and the male in the PM. Upon entering the lobby I wished both of them the time of the day and none responded to me. Other that that everything was fine. I will stay here again in the future. Another plus for Choice properties.More</t>
   </si>
   <si>
+    <t>dad127</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r380689882-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
   </si>
   <si>
@@ -688,6 +751,9 @@
     <t>It is a clean, well priced room. B'fast we found was the standard at 2 Quality Inns we stayed at in California.  There's a laundromat &amp; Pizza shop 100 m down the road &amp; it's fairly close to Disneyland- About a 20-30 min walk if you want to?  We had a car &amp; drove with 4 of us parking in D'land car park it was cheaper to do than the shuttle.More</t>
   </si>
   <si>
+    <t>Johnny N Mary R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r362299391-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
   </si>
   <si>
@@ -712,6 +778,9 @@
     <t>The front desk was very friendly, the rooms were very clean. we paid in advance, so the price of the room was good. we ended up staying one more night due to some more testing on my wife, the front desk was able to get us a room even though it was short notice, overall experience was great, we will be staying there again......More</t>
   </si>
   <si>
+    <t>Fred B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r354929259-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
   </si>
   <si>
@@ -733,6 +802,9 @@
     <t>We have stayed the past five years, including the former name in the same hotel chain. Excellent  service provided by the staff. Clean updated rooms, We were not up early in am for the breakfasts, Staff remember us from previous stays &amp; go out of their way to make us feels welcome &amp; at home, would highly recommend to anyone i know,close to Disneyland. We watched the fireworks from our room!!More</t>
   </si>
   <si>
+    <t>mel23k</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r350129570-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
   </si>
   <si>
@@ -754,6 +826,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Allymom1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r341960685-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
   </si>
   <si>
@@ -775,6 +850,9 @@
     <t>The title "main gate" would make me assume somewhere actually near the main gate of Disneyland, not over a mile away. Checked in to hotel late in the evening and there was no parking, which we were charged 5.75 for. Was told to just park in the registration parking spot and worried that our rental car would be towed all night. If you are lucky enough to get a parking spot, they are so tight you can barely get in and out of the cars which is the reason for most people taking up more than 1 spot. Nobody wants to park their car and worry about door dings and not being able to get in and out. The rooms are fairly large, but had a musty smell. The bathroom was not very clean. Tried to plug my phone in to charge it and the plug would not stay in the outlet. Upon checkout was told that they would leave a $75 hold on my credit card for 7 days. This is ridiculous. The room was fully paid and there is no reason to hold any money. I have stayed at many choice hotels and have never been told this or have this happen. Would definitely not stay here again. More</t>
   </si>
   <si>
+    <t>NPrentiss</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r339746725-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
   </si>
   <si>
@@ -790,6 +868,9 @@
     <t>Surprise! You have a generously large hot tub in your bathroom.  The jets are stronger than most of the jets you experience in hotel jacuzzis--and you get to control the temperature.  I was pleasantly surprised by the cleanliness, the front desk agent was very good, and the bed was comfy.</t>
   </si>
   <si>
+    <t>Aubrey M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r339500327-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
   </si>
   <si>
@@ -811,6 +892,9 @@
     <t>My husband and I visited with our 3 children in May 2015 for a family trip to Disneyland. They had just completed a remodel on our room and were working on the other rooms around us. The noise from the remodel was not bad, as they did the work during daylight hours. Our stay was not disturbed one bit and everything looked nice on the grounds. We were pleasantly surprised to find the room had a sleeper sofa as well as two queens (website we booked on had said nothing about the sofa bed).  Everything was very clean! We were very happy with the room. The included continental breakfast was small but done well. They had cereal, milk, juice, coffee, tea, danish rolls, fruit, oatmeal...the basics. The ONLY reason I would give this motel a 4 instead of a 5 is because the pool was VERY small, which was not properly advertised on the website (the pictures made it look quite big). Like, seriously tiny. Also, the parking lot spaces are extremely narrow. When we stayed there, parking was $5 a day, I think. We drove to the parks each day and paid to park in the Toy Story lot. I would not recommend walking from the motel. Overall a very nice stay!More</t>
   </si>
   <si>
+    <t>Jessica M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r330404401-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
   </si>
   <si>
@@ -838,6 +922,9 @@
     <t>I had a two night stay at this hotel and was very pleased with everything. Check in was fast, the front desk staff were prepared and had everything ready so all I had to do was present my ID and sign. We were able to purchase the tickets to Disneyland then and there. We were assigned room 326 which we enjoyed because we could see our car in the parking lot and the Disney fireworks from another window. The room was clean and very spacious. Bed was tidy, no trash on the floor, mirrors were clear as can be. HUGE two person tub and neat towels, shampoo, lotion, conditioner, and soap in the room. The housekeepers were friendly and front desk was super kind and helpful! Thank you so much for a great stay. I will definitely be coming back anytime I need a hotel in the area!More</t>
   </si>
   <si>
+    <t>Sandi G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r329397449-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
   </si>
   <si>
@@ -856,6 +943,9 @@
     <t>We check out tomorrow however I wanted to write a review while it was fresh in my memory.  Check in was a breeze.  The front staff was so nice.  Lobby was clean and bright. We reserved the 3 Queen room with a rollaway bed.  We were assigned room 306.   Top floor on the corner. The room was very clean.  Beds and linens were clean.  We received plenty of clean towels and toiletries.  The room has 3 windows which provides natural light.   Loved it.  The grounds are clean too. The bus stop to Disney is approximately 1 block away.  However we used Uber to and from the barks. We enjoyed breakfast.  The waffles were tasty.  We usually ate in our room while getting ready for the parks.  This hotel was fine for our Disney stay.  This hotel is in an older neighbor with a few sketchy people out after hours but we stayed in our rooms and slept at night.  We wpuld stay again. More</t>
   </si>
   <si>
+    <t>kitcat_uk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r321453272-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
   </si>
   <si>
@@ -877,6 +967,9 @@
     <t>The staff were friendly, parking was fine for our little Toyota Yaris rental, breakfast options pretty good. The room was very big, air con and fridge not too loud. We got a room with a view of the fireworks was nice to see them 3 nights in a row from the comfort of our room. The beds were comfy.The ART was very close, we did have to wait 30mins for it one time which was very annoying but the other times it came very quick and even waited for us when we were going back from disneyland.More</t>
   </si>
   <si>
+    <t>Ali P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r310041776-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
   </si>
   <si>
@@ -907,6 +1000,9 @@
     <t>Very nice hotel. Professional staff. Very organized and the beds are so comfortable! I like the fact it has an elevator. A lot of hotels around here do not. Rooms have fridge and microwave and coffee maker too! The TV is crystal clear. And the rooms have a lot of mirrors. Also the lighting in the rooms are nice. More</t>
   </si>
   <si>
+    <t>Pamela B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r309619912-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
   </si>
   <si>
@@ -926,6 +1022,9 @@
   </si>
   <si>
     <t>This motel has been one of the best motel stay we had ever stayed in the Disneyland Area. Check in was super easy and Ruby was amazing and helpful. She told me it better to walk the 10 minute walk instead of paying 17 dollars for parking. When I got back from the parks the bed was so comfortable I slept through my alarm. The room was huge, a lot bigger then my stay at other hotels in the Disneyland area. It was so quiet I did not  hear any traffic from Harbor Street. Even check out was a breeze. I know I will be staying there again.More</t>
+  </si>
+  <si>
+    <t>fencecrow</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r307358266-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
@@ -954,6 +1053,9 @@
 The ART (Anaheim Resort Transport) stops about 200 meters down the road.  Tickets can be bought from the reception area.  $5.00 a day.  The bus takes you to Disney and California Adventure.  It is route 10 for when you need to get...Whist the rooms are very large and spacious, there are a few little things that makes the layout annoying.There is only a small table and chair to set at, and not very comfortable.  The TV is fixed to the wall, so you are unable to move it to few it from the table and chair, you have to be sitting on the bed.  There really is not enough storage eg, cupboards draws in each room.We stayed 5 days, finishing off our trip to the USA, by staying here.  We used a hotel booking site, and the booking went through okay.  We were charged $5.00 a day to park our car, very tight if there is a few large vehicles in the parking area also, as well as $5.00 a day resort fee.  Still trying to work that one out.  If it was for use of the pool, it is concerning, as the pool may appear big in the pictures, it is not really.  It was clean however.Breakfast is okay.  There are only four tables each with three seats.  This means a lot of eating breakfast in your room on the small table and uncomfortable chairs.The ART (Anaheim Resort Transport) stops about 200 meters down the road.  Tickets can be bought from the reception area.  $5.00 a day.  The bus takes you to Disney and California Adventure.  It is route 10 for when you need to get back to the hotel.Front office staff were friendly and knowledgeable.  Housekeepers do a great job, but a room being done at 4.00pm is a little late.  If you like big fluffy bath towels, you had better bring your own, because the small threadbare ones in the bathrooms do need replacing.More</t>
   </si>
   <si>
+    <t>Shai V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r300899475-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
   </si>
   <si>
@@ -975,6 +1077,9 @@
     <t>My sister, my niece and me stayed  in the Quality Inn &amp; Suites Maingate in the middle of July 2015. The Motel is with a small car parking surrounding   with a 2 stories high of rooms.  The room was big with two Queen size beds.  Clean and nice like a typical American Motel, slightly outdated and old . The location isn't very good if you're visiting Disneyland. The Motel is in the other side of the town across the Freeway - something like 15 Min. walk to Disneyland and not pleasant if you consider coming back late from the park. The price was a little bit above what I think is a good value - around 200$ -  but considering  the HUGE  demand of tourists in this time of year its understandable.  All in all between Average and Very Good.More</t>
   </si>
   <si>
+    <t>gaw44</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r299716316-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
   </si>
   <si>
@@ -993,6 +1098,9 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>Tracy B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r298371840-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
   </si>
   <si>
@@ -1011,6 +1119,9 @@
     <t>January 2015</t>
   </si>
   <si>
+    <t>Jodie R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r293361091-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
   </si>
   <si>
@@ -1029,6 +1140,9 @@
     <t>I enjoyed our room, the beds and pillows were comfortable. Our room was always cleaned well. The room was large and had a nice large bathroom counter that was separate from the toilet area, which was great. The only down side is the parking, if you plan on returning to your room late you may not have a parking space. There is also a parking fee. The hotel is a very easy drive to the Mickey and Friends parking lot. The breakfast was just fair, we ate at it once then decided to go other places to eat the other days. Alfred, who checked us in, was very nice and helpful.More</t>
   </si>
   <si>
+    <t>Bigwaggsfamily</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r289111816-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
   </si>
   <si>
@@ -1050,6 +1164,9 @@
     <t>We were in town for a one-day visit to Disneyland. We used our points to pay for a two night stay. The room was large, clean, though showing its wear, and had everything expected at a Quality Inn. Which was fine since we didn't come to stay in the room. Nice view of the Disneyland fireworks. (Which if you are not in town for Disneyland, I could see how that would be annoying, but was a bonus for us.) The hotel is convenient to Disney. The only negative I would mention is the parking lot. First, you have to pay to park. So even though our stay was free, we had to pay $22 to park. Second, the lot was small. If all the guests were there for Disney (with mini vans and Toyotas), that would be fine. But there are contract workers staying overnight with large utility trucks. Those who arrive late will have to get creative. I watched a few vehicles, including a utility truck drive into the parking lot only to make a "three-point turn" to get out of the closed in lot. I don't know if there was more parking elsewhere or if you had to park on the street. I hope the parking fee was removed if you did have to park elsewhere.More</t>
   </si>
   <si>
+    <t>Kailuatutu</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r287783155-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
   </si>
   <si>
@@ -1068,6 +1185,9 @@
     <t>My son and I stayed here very happily for a week in June. This facility has spacious rooms. We had two comfortable  queen beds with ample space left over for a mini fridge unit (microwave and coffee supplies sat on top of the unit), an LED TV which sat on a fair sized dresser, a table and two chairs and five large suitcases. We had more than enough room to move around safely in the room. There was a small wall safe located in a large vanity area. The bathroom was quite clean and spacious and the carpets were clean as well. They had an elevator which helped getting upstairs after a long day a breeze. The office staff was easy to work with and the cleaning staff was very nice. They bent over backwards to make your stay a pleasant one.  I booked on-line and was quoted a rate that was higher than the AAA book rated. I went to the office and they graciously adjusted my rate - no fuss involved. One of the freebies of staying at this hotel is that you can see the complete Disney Land fireworks show from the walkways outside your room or from the parking lot. I'd definitely stay here again More</t>
   </si>
   <si>
+    <t>lisa b</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r284582408-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
   </si>
   <si>
@@ -1090,6 +1210,9 @@
   </si>
   <si>
     <t>the rooms are very nice and have everything  you need very clean and safe and the price is great  even have breakfast always a happy stay for our family  the beltrans saved the best for last the staff is awesome  ALFRED  also david  and paul again ALFRED you always  make our stays like were at home your  the best lisa&amp;familyMore</t>
+  </si>
+  <si>
+    <t>Michael_Keeney72</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r284045442-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
@@ -1118,6 +1241,9 @@
 On the downside, the parking is VERY tight, except for one spot at the end of the swimming pool (if you stay here, you'll know which spot I'm talking about).  After walking to the park for two days and about killing ourselves (walking to and from + walking in the park all day is a bit much), we drove and parked in the DIsney lot.  One night, when we came back, I parked relatively close to a wall on the passenger side of my vehicle so that...My wife and I, along with our four children spent six nights at the Quality Inn &amp; Suites Maingate the week of June 21st through the 27th.Pros:  Very friendly staff who'll probably bend over backwards to make your stay pleasant, about 3/4 of a mile from Disneyland, clean, comfortable, and recently refurbished rooms, and a great view of the Disneyland fireworks each night (assuming you're not in the park), nice breakfast (although the breakfast nook is relatively small).Cons: VERY tight parking (will discuss below), fees that aren't disclosed on the hotel's website (example:  they charge a $5.75 a night "resort" fee).  Overall, we had a good time staying here.  As I pointed out, the staff was very friendly and helpful.  If we needed towels, they brought us extras.  Good breakfast selection, especially for such a small (relatively speaking) hotel.  I would feel good about staying here again if the opportunity arose.On the downside, the parking is VERY tight, except for one spot at the end of the swimming pool (if you stay here, you'll know which spot I'm talking about).  After walking to the park for two days and about killing ourselves (walking to and from + walking in the park all day is a bit much), we drove and parked in the DIsney lot.  One night, when we came back, I parked relatively close to a wall on the passenger side of my vehicle so that the person parked on the driver's side wouldn't ding up my vehicle.  Want to guess what happened the next day?  Yep, nice huge drag mark from the slob who pushed their car door into my van's sliding door (Yes, I saw the person do it).  Not the fault of the hotel, but I would watch carefully when parking here because there are plenty of folks who don't give a damn about your property.The hotel also needs to disclose ALL of its fees.  They do disclose their parking fee, but then they tacked on an additional "resort" fee of $5.75 per night that was not disclosed on their website.  Just tell us all of the fees up front, please!Outside of the parking situation and the fees, I would recommend this hotel.More</t>
   </si>
   <si>
+    <t>Nola C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r283363399-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
   </si>
   <si>
@@ -1136,6 +1262,9 @@
     <t>We arrive around 8 p.m. To Anaheim, California.  We happened to notice Quality Inn &amp; Suites Maingate. There was a man at the front desk. I did not think to get his name. He was very nice and very helpful. We were so happy we were able to get a room here. We had a problem with the safe in the room.  The man at the front desk sent two nice maintenance men to assist us with the safe in the room. The man at the front desk called our room. To check on us, to make sure the problem with the safe was fixed. The two mornings we were there. Ruby was very helpful. She answered all of our questions. It makes a difference when people care.More</t>
   </si>
   <si>
+    <t>niteglo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r279961573-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
   </si>
   <si>
@@ -1160,6 +1289,9 @@
     <t>This a great place to stay only ten minutes from Disney Ruby was very helpfull to us she even sold us the bus tickets so that we wouldn't have to take our car and save us a lot of hassle veryclean and quiet I will stay here again and we recommend to friends.More</t>
   </si>
   <si>
+    <t>sucedo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r279487451-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
   </si>
   <si>
@@ -1178,6 +1310,9 @@
     <t>Double queen spacious for our family, very Clean, after check in front desk called to make sure everything was ok. Breakfast was great kids enjoyed waffles only suggest to put in another waffle maker and more tables and chairs. Clerks were extremely profession. When we checked out and my husband forgot his licence at the desk, the clerk ran behind us almost 2 blocks away to return it.. they are great. And most definitely will stay there again.More</t>
   </si>
   <si>
+    <t>Dalejrfan96</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r279311143-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
   </si>
   <si>
@@ -1196,6 +1331,9 @@
     <t>We got the 3 bed queen room. Very spacious, clean and comfortable. The room needed more lighting and the ac does not cool the far bed very well because of the divider wall. Breakfast was good. No free shuttle to Disneyland as advertised. Staff friendly. Parking was difficult, when you come in later all the spots are full. Luckily they let us park in the reservation parking. The toilet did not flush on the very first use the brought a plunger up right away. More</t>
   </si>
   <si>
+    <t>veganjohn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r270664658-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
   </si>
   <si>
@@ -1220,6 +1358,9 @@
     <t>I was on a business trip not going to Disneyland, but even if you are going there it's only a few blocks away.  I could see the nightly Disney fireworks from my room.  The room was very spacious, super clean and comfortable.  The staff were very helpful and aside from the Disney fireworks it was very quiet.  The microwave and mid-size fridge in the room were super and the price was great too!  I would definitely stay here again.-JohnMore</t>
   </si>
   <si>
+    <t>GalesPlay</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r269223555-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
   </si>
   <si>
@@ -1247,6 +1388,9 @@
     <t>I took my daughter and her family to Disneyland.  We had the room with 3 queen beds.  The room was big, clean, and perfect for our group of 5.  Having breakfast at the hotel worked out great as we had 2 4yr old girls with us.  The staff was friendly and always greeted us with a smile.  We also enjoyed the pool one afternoon which was a great break from the parks.  Staying here made the trip so much more affordable and I was able to indulge my family without worrying about cost.More</t>
   </si>
   <si>
+    <t>Izndani</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r266912094-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
   </si>
   <si>
@@ -1265,6 +1409,9 @@
     <t>i had three room for my whole family the staf was  awesome .. The breakfast was really good... Check-in was fast... And  literally minutes from Disneyland... The one and only negative thing I have to say is the parking it's really tight but I would  definitely stay their over and over....More</t>
   </si>
   <si>
+    <t>Lauracello</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r254983881-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
   </si>
   <si>
@@ -1292,6 +1439,9 @@
     <t>Great choice for families or groups as the rooms are large, plenty of counterspace, and storage, even the fridge is larger than typical hotel room. Beds were very comfortable. It is a quick 3-5 minute drive to main Disney parking. Walking would be probably 30 min and over a freeway overpass. Worth it to drive and pay $17 for parking. Front desk and housekeeping were the kindest most helpful and friendly I've encountered in any hotel. Excellent service. Albert at front desk printed our park tickets for us.  Only con is that the "deluxe continental" breakfast was disappointing. ( waffle bar, cereal,pastries, juice, biscuits and gravy,) A few protein additions like peanut butter, Hard boiled eggs, and raisins for oatmeal would improve the breakfast. Parking was tight and hard to back out but that is minor also small outdoor pool but who has time to swim after disneyland. All in all a great place. I would definitely stay here again for the service and spacious rooms.More</t>
   </si>
   <si>
+    <t>Guest H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r254697976-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
   </si>
   <si>
@@ -1316,6 +1466,9 @@
     <t>Our stay started with a 45 minute wait in the lobby because our room wasn't ready despite a 3pm check-in guarantee. The staff did nothing to accommodate us for this inconvenience, save a feigned, "sorry". To make matters worse during our wait the staff attempted to charge a parking fee in addition to the room charge despite our reservation stating "free parking". The room was haphazardly cleaned and the carpets filthy. We had to wear sandals because walking on the carpet left a gross sticky residue and layers of dirt on our feet. additionally the small cheap pillows and uncomfortable mattresses resulted in a terrible night's sleep and a sore back and neck. One of the beds was noticeable indented from it's use. Perhaps they should replace old furniture and upgrade the pillows. They reminded me of the cheap pillows you get on an airplane. I wished I had brought my own. Also no one came by to clean the room until 5pm the next day. It would have been nice to come back to a clean room. And by the time they finally came by we were all tired and not inclined to move out of the room again. The staff were nice but the accommodations were not worth the fees. I wouldn't stay here again nor recommend this hotel to anyone. We were very disappointed.More</t>
   </si>
   <si>
+    <t>Veteran2115</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r253558268-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
   </si>
   <si>
@@ -1334,6 +1487,9 @@
     <t>I rented two rooms for myself and family,which included two small children. Spacious,clean rooms, very good breakfast and facilities,excellent staff,and good location to Disney Parks. An unusual situation happened, and the staff couldn't have been more professional. More</t>
   </si>
   <si>
+    <t>Natoak</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r251558675-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
   </si>
   <si>
@@ -1358,6 +1514,9 @@
     <t>Accidentally left a jacket behind and the hotel staff was absolutely awesome in helping me get it back - even went as far as directly dropping it off at the Post Office because the postal carrier wouldn't take my return envelope as is with the postage. On top of that, the staff called at least three times to inform me of the steps they were taking and then to confirm I had successfully received my jacket in the mail.More</t>
   </si>
   <si>
+    <t>ttmomma123</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r250931193-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
   </si>
   <si>
@@ -1385,6 +1544,9 @@
     <t>We had a wonderful stay for our family trip to Disney. We rode the shuttle a block from Hotel to the front gate and back. We could even see the fireworks perfectly from the hotel balcony. It was also great to have a quick bite to eat with the continental breakfast before heading out to Disney. Most importantly, we must praise the honesty of housekeeping. We left behind a substantial amount of money, about $400 in the room upon check out. It had fallen out of our pocket under the bed skirt. We didn't realize it until we were almost to Arizona. We phoned the Hotel and they called us in about an hour to tell us they found our cash. It was amazing and our way home 5 days later, we went back and picked it up. Thank you Quality Inn for your honesty and a great stay!!More</t>
   </si>
   <si>
+    <t>az4ez2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r250805114-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
   </si>
   <si>
@@ -1403,6 +1565,9 @@
     <t>I recently had a fire at my house and I have been forced to stay in hotels for a couple of weeks due to the rehabilitation efforts.  I was told by the construction workers at my house if you ready on a certain date it was not I had to make the reservations here last minute through website and after booking my stay there were no problems I showed up the night clerk book me in in less than 10 minutes take into account the fact that I didn't have any former state ID only had a passportI requested a king size bed and got it is one of the most comfortable hotel beds I've slept in. The room was spotless plenty of towels refrigerator coffee maker iron and ironing board and there were no people hanging around in the parking lot past dark like other hotels in Anaheim area. I slept in so I cannot speak to breakfast but the rooms were clean quiet I got the rest that I needed but I checked out the speedy and I was on my way. no problemsMore</t>
   </si>
   <si>
+    <t>hlf2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r249472701-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
   </si>
   <si>
@@ -1427,6 +1592,9 @@
     <t>excellent facility no complaints at all with the property.  The information from trip advisor  site was not as good.  The listing says free parking that is incorrect they charge 5.50 per day.  If you go directly to quality inn site they say that it is not free.  The picture from this site shows a hot tub.  The pic is NOT from that property, again a failure from the trip advisor website, and not quality Inn.  The shuttle is the bus that only runs once an hour and closes an hour before Disneyland closes. Do not waste your 5.00  each for the shuttle.  Trip advisor site let me down big time.More</t>
   </si>
   <si>
+    <t>JStephens70</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r247702471-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
   </si>
   <si>
@@ -1451,6 +1619,9 @@
     <t>This hotel was very nice. Clean, and staff was awesome. I left a sweater behind by mistake I called hotel and long story short they had it I talked with Ruby and she was so very very nice to see that I got my sweater back. I will for sure return to this hotel and would highly recommend it to anyone. About 15 min walk to Disneyland maingate. Thanks again so much RubyMore</t>
   </si>
   <si>
+    <t>laurad4620</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r246118067-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
   </si>
   <si>
@@ -1476,6 +1647,9 @@
   </si>
   <si>
     <t>I been staying at this hotel since Nov 2014  this is my favorite Quality Inn now  I really like the rooms they have plenty of space  I always get the room with the King Bed and whirlpool inside the bathroom I love it because I get to take a bath and relax  the rooms are very clean and  bed is comfortable also the rooms have more then 1 window they have 1 or 2 smaller ones with shutters is nice because it feels to me like an apartment  The staff there is very nice is you need anything they will make sure to take care of you  Ruby is there in the morning to help you she is very helpful and alfred is there in the evening to help you they both will make sure you have a great stay.More</t>
+  </si>
+  <si>
+    <t>DoubleOIncognito</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r232721471-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
@@ -1515,6 +1689,9 @@
 Anyhow, for what it was it truly was a great place and I would recommend it to people without a doubt.  But for my personal taste, I'll probably stay elsewhere next time... I just don't like to...I stayed here for almost a week on business.  The staff was fantastic, from the front desk to the maids, they were nice and pleasant and helpful when needed.  The grounds are kept beautifully and the place is just overall well maintained.  No problems there. The suite is stayed in was HUGE.  No problems there as far as size... Decor, I'll get to in a minute.One huge plus is on the weekend evenings I had a great view of the fireworks at Disney... I mean, truly a great little pleasure! My only problems with this place are simply based upon personal preference.  For example, Had I known this was a hotel with rooms facing the outside (rather than hallways on the inside), I probably wouldn't have stayed here in the first place.  I just prefer my windows to be facing away from where people walking by can look in. I also felt the rooms were not to the standard I like in style and decor.  I know that's kind of lame, but like I said, personal preference.  This location looks like a slightly more upscale Super 8 motel or something... I prefer a more contemporary environment as most comfort suites have now.  Anyhow, for what it was it truly was a great place and I would recommend it to people without a doubt.  But for my personal taste, I'll probably stay elsewhere next time... I just don't like to access my room from an open walkway outside.  More</t>
   </si>
   <si>
+    <t>TibetVisitor</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r232457119-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
   </si>
   <si>
@@ -1536,6 +1713,9 @@
     <t>One of those rare occasion when one have the good fortune of meeting an employee  who is willing to provide excellent service. We met one - Arcee at the front desk.We arrived before check in time, he made extra effort to get us the room type that we requested.Next morning, we found our car being boxed in on both sides and could not even get into the car from either side. Arcee went out twice to find one of the car owner to move their vehicle so that we could back out.The hotel itself is OK, older, but spacious and clean.Not a good stay (not the fault of the hotel) - aside from the parking incidence, at 2am, kids were screaming and yelling for an hour, then some guest(s) constantly used his/her annoying beeping remote car control. Wish people have some consideration and class.But Arcee saved our day.More</t>
   </si>
   <si>
+    <t>Rhonda C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r232279386-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
   </si>
   <si>
@@ -1554,6 +1734,9 @@
     <t>we only stayed the 1 night, the reception staff seemed genuinely happy to see us. The room was large, plenty of pillows and towels. The free continental breakfast was well presented. Lots of parking and my favourite a guest laundry.More</t>
   </si>
   <si>
+    <t>Red C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r222508178-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
   </si>
   <si>
@@ -1578,6 +1761,9 @@
     <t>This newly upgraded and renovated hotel is a great deal. Their rooms are spacious, clean, and the beds are so comfortable. The location is quiet and perfect distance from Disneyland because it's just 20 minutes walk. Although on our third day we decided to use the ART shuttle. Their hot breakfast was the added plus. All the staff were amazing but we want to emphasize to the outstanding helpfulness of Ruby. She is everybody's favorite. She was always with a big smile every time we see her. She is my dream employee to have in my own business. More</t>
   </si>
   <si>
+    <t>Kelley A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r216935472-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
   </si>
   <si>
@@ -1600,6 +1786,9 @@
   </si>
   <si>
     <t>Impressed with the renovations!! The beds are always comfortable and finally updated the room and the breakfast! ! Alfred, who had checked us in,  was the friendliest employee I have encountered at any hotel for a long time.  His hospitality really showed throughout our check in process and i loved that he called our room to make sure everything was perfect. I would definitely bring my family here again!!! Absolutely enjoyed my stay! !More</t>
+  </si>
+  <si>
+    <t>Danielle D</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g29092-d78985-r213141184-Quality_Inn_Suites_Anaheim_Maingate-Anaheim_California.html</t>
@@ -2131,43 +2320,47 @@
       <c r="A2" t="n">
         <v>22522</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2179,56 +2372,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>22522</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2242,56 +2439,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="X3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>22522</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2307,56 +2508,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>22522</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
@@ -2374,56 +2579,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="X5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Y5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>22522</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="L6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2435,56 +2644,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="X6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="Y6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>22522</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>96</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="J7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="K7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="L7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2496,56 +2709,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="X7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="Y7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>22522</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>106</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="K8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2561,56 +2778,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="X8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="Y8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>22522</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>116</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="J9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="K9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="L9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2626,56 +2847,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="X9" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="Y9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>22522</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>124</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="J10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="K10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="L10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2687,56 +2912,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="X10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="Y10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>22522</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>133</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="J11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="K11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="L11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2748,56 +2977,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="X11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="Y11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>22522</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>143</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="J12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="K12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="L12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2809,56 +3042,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="X12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y12" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>22522</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>153</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="J13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="K13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="L13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2876,56 +3113,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="X13" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>22522</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>161</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="J14" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="K14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="L14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="n">
         <v>5</v>
@@ -2943,56 +3184,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="X14" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>22522</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>169</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="J15" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="K15" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="L15" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="M15" t="n">
         <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -3010,56 +3255,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="X15" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>22522</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>176</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="J16" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="K16" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="L16" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3071,47 +3320,51 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="X16" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="Y16" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>22522</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>185</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="J17" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="K17" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="L17" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
@@ -3128,56 +3381,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="X17" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="Y17" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>22522</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>194</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="J18" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="K18" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="L18" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="n">
@@ -3195,56 +3452,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="X18" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="Y18" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>22522</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>203</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="J19" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="K19" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="L19" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3256,56 +3517,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="X19" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="Y19" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>22522</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>213</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="J20" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="K20" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="L20" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3317,56 +3582,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="X20" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="Y20" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>22522</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>222</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="J21" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="K21" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="L21" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3384,56 +3653,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="X21" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="Y21" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>22522</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>231</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="J22" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="K22" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="L22" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="M22" t="n">
         <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="n">
         <v>4</v>
@@ -3451,56 +3724,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="X22" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="Y22" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>22522</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>239</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="J23" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="K23" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="L23" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="O23" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3516,56 +3793,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="X23" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="Y23" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>22522</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>248</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="J24" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="K24" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="L24" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3581,56 +3862,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="X24" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="Y24" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>22522</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>256</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="J25" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="K25" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="L25" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="O25" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3650,50 +3935,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>22522</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>264</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="J26" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="K26" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="L26" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="M26" t="n">
         <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3707,50 +3996,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>22522</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>272</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="J27" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="K27" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="L27" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="O27" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3768,50 +4061,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>22522</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>278</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="J28" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="K28" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="L28" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -3829,50 +4126,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>22522</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>286</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="J29" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="K29" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="L29" t="s">
+        <v>291</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>292</v>
+      </c>
+      <c r="O29" t="s">
         <v>263</v>
-      </c>
-      <c r="M29" t="n">
-        <v>5</v>
-      </c>
-      <c r="N29" t="s">
-        <v>264</v>
-      </c>
-      <c r="O29" t="s">
-        <v>239</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -3888,56 +4189,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="X29" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="Y29" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>22522</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>296</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="J30" t="s">
-        <v>270</v>
+        <v>299</v>
       </c>
       <c r="K30" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="L30" t="s">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -3949,56 +4254,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="X30" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="Y30" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>22522</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>303</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="J31" t="s">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="K31" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="L31" t="s">
-        <v>278</v>
+        <v>308</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>279</v>
+        <v>309</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -4014,56 +4323,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="X31" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="Y31" t="s">
-        <v>280</v>
+        <v>310</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>22522</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>311</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="J32" t="s">
-        <v>283</v>
+        <v>314</v>
       </c>
       <c r="K32" t="s">
-        <v>284</v>
+        <v>315</v>
       </c>
       <c r="L32" t="s">
-        <v>285</v>
+        <v>316</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
       <c r="O32" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -4075,56 +4388,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="X32" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="Y32" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>22522</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>322</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>291</v>
+        <v>323</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>292</v>
+        <v>324</v>
       </c>
       <c r="J33" t="s">
-        <v>293</v>
+        <v>325</v>
       </c>
       <c r="K33" t="s">
-        <v>294</v>
+        <v>326</v>
       </c>
       <c r="L33" t="s">
-        <v>295</v>
+        <v>327</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
       <c r="O33" t="s">
-        <v>296</v>
+        <v>328</v>
       </c>
       <c r="P33" t="n">
         <v>5</v>
@@ -4140,56 +4457,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="X33" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="Y33" t="s">
-        <v>297</v>
+        <v>329</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>22522</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>330</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="J34" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="K34" t="s">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="L34" t="s">
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="M34" t="n">
         <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>286</v>
+        <v>317</v>
       </c>
       <c r="O34" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4205,56 +4526,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>288</v>
+        <v>319</v>
       </c>
       <c r="X34" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="Y34" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>22522</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>337</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>304</v>
+        <v>338</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="J35" t="s">
-        <v>306</v>
+        <v>340</v>
       </c>
       <c r="K35" t="s">
-        <v>307</v>
+        <v>341</v>
       </c>
       <c r="L35" t="s">
-        <v>308</v>
+        <v>342</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>309</v>
+        <v>343</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4272,50 +4597,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>310</v>
+        <v>344</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>22522</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>345</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>312</v>
+        <v>347</v>
       </c>
       <c r="J36" t="s">
-        <v>313</v>
+        <v>348</v>
       </c>
       <c r="K36" t="s">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="L36" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>316</v>
+        <v>351</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4329,50 +4658,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>315</v>
+        <v>350</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>22522</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>352</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>317</v>
+        <v>353</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>318</v>
+        <v>354</v>
       </c>
       <c r="J37" t="s">
-        <v>319</v>
+        <v>355</v>
       </c>
       <c r="K37" t="s">
-        <v>320</v>
+        <v>356</v>
       </c>
       <c r="L37" t="s">
-        <v>321</v>
+        <v>357</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>322</v>
+        <v>358</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -4392,50 +4725,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>321</v>
+        <v>357</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>22522</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>359</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="J38" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="K38" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="L38" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>309</v>
+        <v>343</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P38" t="n">
         <v>3</v>
@@ -4453,50 +4790,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>22522</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>366</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>329</v>
+        <v>367</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>330</v>
+        <v>368</v>
       </c>
       <c r="J39" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="K39" t="s">
-        <v>332</v>
+        <v>370</v>
       </c>
       <c r="L39" t="s">
-        <v>333</v>
+        <v>371</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>334</v>
+        <v>372</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P39" t="n">
         <v>3</v>
@@ -4516,50 +4857,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>335</v>
+        <v>373</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>22522</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>374</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>336</v>
+        <v>375</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>337</v>
+        <v>376</v>
       </c>
       <c r="J40" t="s">
-        <v>338</v>
+        <v>377</v>
       </c>
       <c r="K40" t="s">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="L40" t="s">
-        <v>340</v>
+        <v>379</v>
       </c>
       <c r="M40" t="n">
         <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>334</v>
+        <v>372</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -4573,50 +4918,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>341</v>
+        <v>380</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>22522</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>381</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>342</v>
+        <v>382</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>343</v>
+        <v>383</v>
       </c>
       <c r="J41" t="s">
-        <v>344</v>
+        <v>384</v>
       </c>
       <c r="K41" t="s">
-        <v>345</v>
+        <v>385</v>
       </c>
       <c r="L41" t="s">
-        <v>346</v>
+        <v>386</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>334</v>
+        <v>372</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -4630,56 +4979,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>347</v>
+        <v>387</v>
       </c>
       <c r="X41" t="s">
-        <v>348</v>
+        <v>388</v>
       </c>
       <c r="Y41" t="s">
-        <v>349</v>
+        <v>389</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>22522</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>390</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>350</v>
+        <v>391</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>351</v>
+        <v>392</v>
       </c>
       <c r="J42" t="s">
-        <v>352</v>
+        <v>393</v>
       </c>
       <c r="K42" t="s">
-        <v>353</v>
+        <v>394</v>
       </c>
       <c r="L42" t="s">
-        <v>354</v>
+        <v>395</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>334</v>
+        <v>372</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="n">
@@ -4695,56 +5048,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>347</v>
+        <v>387</v>
       </c>
       <c r="X42" t="s">
-        <v>348</v>
+        <v>388</v>
       </c>
       <c r="Y42" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>22522</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>397</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>356</v>
+        <v>398</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>357</v>
+        <v>399</v>
       </c>
       <c r="J43" t="s">
-        <v>358</v>
+        <v>400</v>
       </c>
       <c r="K43" t="s">
-        <v>359</v>
+        <v>401</v>
       </c>
       <c r="L43" t="s">
-        <v>360</v>
+        <v>402</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>334</v>
+        <v>372</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -4762,56 +5119,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>347</v>
+        <v>387</v>
       </c>
       <c r="X43" t="s">
-        <v>348</v>
+        <v>388</v>
       </c>
       <c r="Y43" t="s">
-        <v>361</v>
+        <v>403</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>22522</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>404</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>362</v>
+        <v>405</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>363</v>
+        <v>406</v>
       </c>
       <c r="J44" t="s">
-        <v>364</v>
+        <v>407</v>
       </c>
       <c r="K44" t="s">
-        <v>365</v>
+        <v>408</v>
       </c>
       <c r="L44" t="s">
-        <v>366</v>
+        <v>409</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>334</v>
+        <v>372</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -4823,56 +5184,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>367</v>
+        <v>410</v>
       </c>
       <c r="X44" t="s">
-        <v>368</v>
+        <v>411</v>
       </c>
       <c r="Y44" t="s">
-        <v>369</v>
+        <v>412</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>22522</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>413</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>370</v>
+        <v>414</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>371</v>
+        <v>415</v>
       </c>
       <c r="J45" t="s">
+        <v>416</v>
+      </c>
+      <c r="K45" t="s">
+        <v>417</v>
+      </c>
+      <c r="L45" t="s">
+        <v>418</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
         <v>372</v>
       </c>
-      <c r="K45" t="s">
-        <v>373</v>
-      </c>
-      <c r="L45" t="s">
-        <v>374</v>
-      </c>
-      <c r="M45" t="n">
-        <v>5</v>
-      </c>
-      <c r="N45" t="s">
-        <v>334</v>
-      </c>
       <c r="O45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -4884,47 +5249,51 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>367</v>
+        <v>410</v>
       </c>
       <c r="X45" t="s">
-        <v>368</v>
+        <v>411</v>
       </c>
       <c r="Y45" t="s">
-        <v>375</v>
+        <v>419</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>22522</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>420</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>376</v>
+        <v>421</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>377</v>
+        <v>422</v>
       </c>
       <c r="J46" t="s">
-        <v>378</v>
+        <v>423</v>
       </c>
       <c r="K46" t="s">
-        <v>379</v>
+        <v>424</v>
       </c>
       <c r="L46" t="s">
-        <v>380</v>
+        <v>425</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
@@ -4941,56 +5310,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>367</v>
+        <v>410</v>
       </c>
       <c r="X46" t="s">
-        <v>368</v>
+        <v>411</v>
       </c>
       <c r="Y46" t="s">
-        <v>381</v>
+        <v>426</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>22522</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>427</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>382</v>
+        <v>428</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>383</v>
+        <v>429</v>
       </c>
       <c r="J47" t="s">
-        <v>384</v>
+        <v>430</v>
       </c>
       <c r="K47" t="s">
-        <v>385</v>
+        <v>431</v>
       </c>
       <c r="L47" t="s">
-        <v>386</v>
+        <v>432</v>
       </c>
       <c r="M47" t="n">
         <v>5</v>
       </c>
       <c r="N47" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="O47" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="P47" t="n">
         <v>5</v>
@@ -5006,56 +5379,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>387</v>
+        <v>433</v>
       </c>
       <c r="X47" t="s">
-        <v>388</v>
+        <v>434</v>
       </c>
       <c r="Y47" t="s">
-        <v>389</v>
+        <v>435</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>22522</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>436</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>390</v>
+        <v>437</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>391</v>
+        <v>438</v>
       </c>
       <c r="J48" t="s">
-        <v>392</v>
+        <v>439</v>
       </c>
       <c r="K48" t="s">
-        <v>393</v>
+        <v>440</v>
       </c>
       <c r="L48" t="s">
-        <v>394</v>
+        <v>441</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>395</v>
+        <v>442</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -5073,56 +5450,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>396</v>
+        <v>443</v>
       </c>
       <c r="X48" t="s">
-        <v>397</v>
+        <v>444</v>
       </c>
       <c r="Y48" t="s">
-        <v>398</v>
+        <v>445</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>22522</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>446</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>399</v>
+        <v>447</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>400</v>
+        <v>448</v>
       </c>
       <c r="J49" t="s">
-        <v>401</v>
+        <v>449</v>
       </c>
       <c r="K49" t="s">
-        <v>402</v>
+        <v>450</v>
       </c>
       <c r="L49" t="s">
-        <v>403</v>
+        <v>451</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>395</v>
+        <v>442</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -5134,56 +5515,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>396</v>
+        <v>443</v>
       </c>
       <c r="X49" t="s">
-        <v>397</v>
+        <v>444</v>
       </c>
       <c r="Y49" t="s">
-        <v>404</v>
+        <v>452</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>22522</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>453</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>405</v>
+        <v>454</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>406</v>
+        <v>455</v>
       </c>
       <c r="J50" t="s">
-        <v>407</v>
+        <v>456</v>
       </c>
       <c r="K50" t="s">
-        <v>408</v>
+        <v>457</v>
       </c>
       <c r="L50" t="s">
-        <v>409</v>
+        <v>458</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>410</v>
+        <v>459</v>
       </c>
       <c r="O50" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -5195,56 +5580,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>411</v>
+        <v>460</v>
       </c>
       <c r="X50" t="s">
-        <v>412</v>
+        <v>461</v>
       </c>
       <c r="Y50" t="s">
-        <v>413</v>
+        <v>462</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>22522</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>463</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>414</v>
+        <v>464</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>415</v>
+        <v>465</v>
       </c>
       <c r="J51" t="s">
-        <v>416</v>
+        <v>466</v>
       </c>
       <c r="K51" t="s">
-        <v>417</v>
+        <v>467</v>
       </c>
       <c r="L51" t="s">
-        <v>418</v>
+        <v>468</v>
       </c>
       <c r="M51" t="n">
         <v>2</v>
       </c>
       <c r="N51" t="s">
-        <v>410</v>
+        <v>459</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="n">
@@ -5260,47 +5649,51 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>419</v>
+        <v>469</v>
       </c>
       <c r="X51" t="s">
-        <v>420</v>
+        <v>470</v>
       </c>
       <c r="Y51" t="s">
-        <v>421</v>
+        <v>471</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>22522</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>472</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>422</v>
+        <v>473</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>423</v>
+        <v>474</v>
       </c>
       <c r="J52" t="s">
-        <v>424</v>
+        <v>475</v>
       </c>
       <c r="K52" t="s">
-        <v>425</v>
+        <v>476</v>
       </c>
       <c r="L52" t="s">
-        <v>426</v>
+        <v>477</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
@@ -5327,47 +5720,51 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>411</v>
+        <v>460</v>
       </c>
       <c r="X52" t="s">
-        <v>412</v>
+        <v>461</v>
       </c>
       <c r="Y52" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>22522</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>479</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>428</v>
+        <v>480</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>429</v>
+        <v>481</v>
       </c>
       <c r="J53" t="s">
-        <v>430</v>
+        <v>482</v>
       </c>
       <c r="K53" t="s">
-        <v>431</v>
+        <v>483</v>
       </c>
       <c r="L53" t="s">
-        <v>432</v>
+        <v>484</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
@@ -5394,56 +5791,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>433</v>
+        <v>485</v>
       </c>
       <c r="X53" t="s">
-        <v>434</v>
+        <v>486</v>
       </c>
       <c r="Y53" t="s">
-        <v>435</v>
+        <v>487</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>22522</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>488</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>436</v>
+        <v>489</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>437</v>
+        <v>490</v>
       </c>
       <c r="J54" t="s">
-        <v>438</v>
+        <v>491</v>
       </c>
       <c r="K54" t="s">
-        <v>439</v>
+        <v>492</v>
       </c>
       <c r="L54" t="s">
-        <v>440</v>
+        <v>493</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>441</v>
+        <v>494</v>
       </c>
       <c r="O54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="n">
@@ -5461,47 +5862,51 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>442</v>
+        <v>495</v>
       </c>
       <c r="X54" t="s">
-        <v>443</v>
+        <v>496</v>
       </c>
       <c r="Y54" t="s">
-        <v>444</v>
+        <v>497</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>22522</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>498</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>445</v>
+        <v>499</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>446</v>
+        <v>500</v>
       </c>
       <c r="J55" t="s">
-        <v>447</v>
+        <v>501</v>
       </c>
       <c r="K55" t="s">
-        <v>448</v>
+        <v>502</v>
       </c>
       <c r="L55" t="s">
-        <v>449</v>
+        <v>503</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
@@ -5528,56 +5933,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>442</v>
+        <v>495</v>
       </c>
       <c r="X55" t="s">
-        <v>443</v>
+        <v>496</v>
       </c>
       <c r="Y55" t="s">
-        <v>450</v>
+        <v>504</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>22522</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>505</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>451</v>
+        <v>506</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>452</v>
+        <v>507</v>
       </c>
       <c r="J56" t="s">
-        <v>453</v>
+        <v>508</v>
       </c>
       <c r="K56" t="s">
-        <v>454</v>
+        <v>509</v>
       </c>
       <c r="L56" t="s">
-        <v>455</v>
+        <v>510</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>322</v>
+        <v>358</v>
       </c>
       <c r="O56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -5593,47 +6002,51 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>456</v>
+        <v>511</v>
       </c>
       <c r="X56" t="s">
-        <v>457</v>
+        <v>512</v>
       </c>
       <c r="Y56" t="s">
-        <v>458</v>
+        <v>513</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>22522</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>514</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>459</v>
+        <v>515</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>460</v>
+        <v>516</v>
       </c>
       <c r="J57" t="s">
-        <v>461</v>
+        <v>517</v>
       </c>
       <c r="K57" t="s">
-        <v>462</v>
+        <v>518</v>
       </c>
       <c r="L57" t="s">
-        <v>463</v>
+        <v>519</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
@@ -5660,56 +6073,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>464</v>
+        <v>520</v>
       </c>
       <c r="X57" t="s">
-        <v>465</v>
+        <v>521</v>
       </c>
       <c r="Y57" t="s">
-        <v>466</v>
+        <v>522</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>22522</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>523</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>467</v>
+        <v>524</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>468</v>
+        <v>525</v>
       </c>
       <c r="J58" t="s">
-        <v>469</v>
+        <v>526</v>
       </c>
       <c r="K58" t="s">
-        <v>470</v>
+        <v>527</v>
       </c>
       <c r="L58" t="s">
-        <v>471</v>
+        <v>528</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>472</v>
+        <v>529</v>
       </c>
       <c r="O58" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -5727,56 +6144,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>473</v>
+        <v>530</v>
       </c>
       <c r="X58" t="s">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="Y58" t="s">
-        <v>475</v>
+        <v>532</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>22522</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>533</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>476</v>
+        <v>534</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>477</v>
+        <v>535</v>
       </c>
       <c r="J59" t="s">
-        <v>478</v>
+        <v>536</v>
       </c>
       <c r="K59" t="s">
-        <v>479</v>
+        <v>537</v>
       </c>
       <c r="L59" t="s">
-        <v>480</v>
+        <v>538</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>481</v>
+        <v>539</v>
       </c>
       <c r="O59" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="s"/>
@@ -5788,56 +6209,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>482</v>
+        <v>540</v>
       </c>
       <c r="X59" t="s">
-        <v>483</v>
+        <v>541</v>
       </c>
       <c r="Y59" t="s">
-        <v>484</v>
+        <v>542</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>22522</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>543</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>485</v>
+        <v>544</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>486</v>
+        <v>545</v>
       </c>
       <c r="J60" t="s">
-        <v>487</v>
+        <v>546</v>
       </c>
       <c r="K60" t="s">
-        <v>488</v>
+        <v>547</v>
       </c>
       <c r="L60" t="s">
-        <v>489</v>
+        <v>548</v>
       </c>
       <c r="M60" t="n">
         <v>3</v>
       </c>
       <c r="N60" t="s">
-        <v>490</v>
+        <v>549</v>
       </c>
       <c r="O60" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="s"/>
@@ -5853,56 +6278,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>482</v>
+        <v>540</v>
       </c>
       <c r="X60" t="s">
-        <v>483</v>
+        <v>541</v>
       </c>
       <c r="Y60" t="s">
-        <v>491</v>
+        <v>550</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>22522</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>551</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>492</v>
+        <v>552</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>493</v>
+        <v>553</v>
       </c>
       <c r="J61" t="s">
-        <v>494</v>
+        <v>554</v>
       </c>
       <c r="K61" t="s">
-        <v>495</v>
+        <v>555</v>
       </c>
       <c r="L61" t="s">
-        <v>496</v>
+        <v>556</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>481</v>
+        <v>539</v>
       </c>
       <c r="O61" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="s"/>
@@ -5914,47 +6343,51 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>482</v>
+        <v>540</v>
       </c>
       <c r="X61" t="s">
-        <v>483</v>
+        <v>541</v>
       </c>
       <c r="Y61" t="s">
-        <v>497</v>
+        <v>557</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>22522</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>558</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>498</v>
+        <v>559</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>499</v>
+        <v>560</v>
       </c>
       <c r="J62" t="s">
-        <v>500</v>
+        <v>561</v>
       </c>
       <c r="K62" t="s">
-        <v>501</v>
+        <v>562</v>
       </c>
       <c r="L62" t="s">
-        <v>502</v>
+        <v>563</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
@@ -5981,47 +6414,51 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>503</v>
+        <v>564</v>
       </c>
       <c r="X62" t="s">
-        <v>504</v>
+        <v>565</v>
       </c>
       <c r="Y62" t="s">
-        <v>505</v>
+        <v>566</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>22522</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>567</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>506</v>
+        <v>568</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>507</v>
+        <v>569</v>
       </c>
       <c r="J63" t="s">
-        <v>508</v>
+        <v>570</v>
       </c>
       <c r="K63" t="s">
-        <v>509</v>
+        <v>571</v>
       </c>
       <c r="L63" t="s">
-        <v>510</v>
+        <v>572</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
@@ -6048,56 +6485,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>511</v>
+        <v>573</v>
       </c>
       <c r="X63" t="s">
-        <v>512</v>
+        <v>574</v>
       </c>
       <c r="Y63" t="s">
-        <v>513</v>
+        <v>575</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>22522</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>576</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>514</v>
+        <v>577</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>515</v>
+        <v>578</v>
       </c>
       <c r="J64" t="s">
-        <v>516</v>
+        <v>579</v>
       </c>
       <c r="K64" t="s">
-        <v>517</v>
+        <v>580</v>
       </c>
       <c r="L64" t="s">
-        <v>518</v>
+        <v>581</v>
       </c>
       <c r="M64" t="n">
         <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>519</v>
+        <v>582</v>
       </c>
       <c r="O64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P64" t="n">
         <v>4</v>
@@ -6119,13 +6560,13 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>520</v>
+        <v>583</v>
       </c>
       <c r="X64" t="s">
-        <v>521</v>
+        <v>584</v>
       </c>
       <c r="Y64" t="s">
-        <v>522</v>
+        <v>585</v>
       </c>
     </row>
   </sheetData>
